--- a/Base de datos T2 macro log.xlsx
+++ b/Base de datos T2 macro log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A71C285-F486-4A95-957A-4D643A98E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003BEAA0-74EE-4A56-A520-A1AE577BD01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C03619A9-834F-4759-91C4-4EDF79D9A3D7}"/>
   </bookViews>
@@ -90,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,11 +122,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,12 +151,13 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -168,42 +165,31 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{DB57CC3F-9B24-45A6-BC1B-E246C163897F}"/>
+    <cellStyle name="Porcentaje 2" xfId="3" xr:uid="{21CB0DD7-51EB-4862-AC6D-58E2B039C2EE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,66 +501,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A58E04-B872-4CE7-923A-6258FADE56C7}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="14"/>
-    <col min="14" max="14" width="11.42578125" style="16"/>
+    <col min="8" max="8" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="8">
         <v>35125</v>
       </c>
       <c r="B2" s="1">
@@ -595,24 +582,26 @@
       <c r="G2" s="2">
         <v>2370.8071513177701</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="6">
         <v>215724.5172</v>
       </c>
       <c r="I2" s="9">
         <v>59.409666666666702</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="10">
         <v>46.8</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="11">
         <f>J2*L2</f>
         <v>243280440</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="11">
         <v>5198300</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="14">
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
         <v>183898.03460568664</v>
       </c>
       <c r="O2" s="2">
@@ -620,7 +609,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="8">
         <v>35217</v>
       </c>
       <c r="B3" s="1">
@@ -641,24 +630,26 @@
       <c r="G3" s="2">
         <v>2344.6774995104902</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="6">
         <v>218810.9454</v>
       </c>
       <c r="I3" s="9">
         <v>60.816333333333297</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="10">
         <v>46.8</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="11">
         <f t="shared" ref="K3:K66" si="0">J3*L3</f>
         <v>240622200</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="11">
         <v>5141500</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="14">
+      <c r="M3" s="13">
+        <v>2.367740378950554E-2</v>
+      </c>
+      <c r="N3" s="6">
         <v>184159.33172814277</v>
       </c>
       <c r="O3" s="2">
@@ -666,7 +657,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="8">
         <v>35309</v>
       </c>
       <c r="B4" s="1">
@@ -687,24 +678,26 @@
       <c r="G4" s="2">
         <v>2338.3692881239099</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="6">
         <v>221897.37359999999</v>
       </c>
       <c r="I4" s="9">
         <v>61.603000000000002</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="10">
         <v>46.8</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="11">
         <f t="shared" si="0"/>
         <v>238202640</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="11">
         <v>5089800</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="14">
+      <c r="M4" s="13">
+        <v>1.2935121595624609E-2</v>
+      </c>
+      <c r="N4" s="6">
         <v>182480.60213851338</v>
       </c>
       <c r="O4" s="2">
@@ -712,7 +705,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="8">
         <v>35400</v>
       </c>
       <c r="B5" s="1">
@@ -733,24 +726,26 @@
       <c r="G5" s="2">
         <v>2518.6202321037099</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="6">
         <v>224983.80170000001</v>
       </c>
       <c r="I5" s="9">
         <v>62.573666666666703</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="10">
         <v>46.8</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="11">
         <f t="shared" si="0"/>
         <v>247979159.99999997</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="11">
         <v>5298700</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="14">
+      <c r="M5" s="13">
+        <v>1.5756808380544808E-2</v>
+      </c>
+      <c r="N5" s="6">
         <v>181533.34499955131</v>
       </c>
       <c r="O5" s="2">
@@ -758,7 +753,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="8">
         <v>35490</v>
       </c>
       <c r="B6" s="1">
@@ -779,24 +774,26 @@
       <c r="G6" s="2">
         <v>2547.8235745637198</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="6">
         <v>228070.22990000001</v>
       </c>
       <c r="I6" s="9">
         <v>63.542000000000002</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="10">
         <v>46.3</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="11">
         <f t="shared" si="0"/>
         <v>243158339.99999997</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="11">
         <v>5251800</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="14">
+      <c r="M6" s="13">
+        <v>1.5475093356629747E-2</v>
+      </c>
+      <c r="N6" s="6">
         <v>178857.70148253898</v>
       </c>
       <c r="O6" s="2">
@@ -804,7 +801,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="8">
         <v>35582</v>
       </c>
       <c r="B7" s="1">
@@ -825,24 +822,26 @@
       <c r="G7" s="2">
         <v>2632.2421226760598</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="6">
         <v>231208.633</v>
       </c>
       <c r="I7" s="9">
         <v>64.211666666666702</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="10">
         <v>46.3</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="11">
         <f t="shared" si="0"/>
         <v>240523870</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="11">
         <v>5194900</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="14">
+      <c r="M7" s="13">
+        <v>1.0538961107089798E-2</v>
+      </c>
+      <c r="N7" s="6">
         <v>178689.89230318123</v>
       </c>
       <c r="O7" s="2">
@@ -850,7 +849,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="8">
         <v>35674</v>
       </c>
       <c r="B8" s="1">
@@ -871,24 +870,26 @@
       <c r="G8" s="2">
         <v>2655.1907149251902</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="6">
         <v>234347.03599999999</v>
       </c>
       <c r="I8" s="9">
         <v>65.127666666666698</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="10">
         <v>46.3</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="11">
         <f t="shared" si="0"/>
         <v>245302029.99999997</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="11">
         <v>5298100</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="14">
+      <c r="M8" s="13">
+        <v>1.4265320424637211E-2</v>
+      </c>
+      <c r="N8" s="6">
         <v>178389.75058435439</v>
       </c>
       <c r="O8" s="2">
@@ -896,7 +897,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="8">
         <v>35765</v>
       </c>
       <c r="B9" s="1">
@@ -917,24 +918,26 @@
       <c r="G9" s="2">
         <v>2851.0982212840299</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="6">
         <v>237485.43900000001</v>
       </c>
       <c r="I9" s="9">
         <v>66.512666666666703</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="10">
         <v>46.3</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="11">
         <f t="shared" si="0"/>
         <v>249103259.99999997</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="11">
         <v>5380200</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="14">
+      <c r="M9" s="13">
+        <v>2.1265923852126403E-2</v>
+      </c>
+      <c r="N9" s="6">
         <v>178955.94665364432</v>
       </c>
       <c r="O9" s="2">
@@ -942,7 +945,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="8">
         <v>35855</v>
       </c>
       <c r="B10" s="1">
@@ -963,24 +966,26 @@
       <c r="G10" s="2">
         <v>2680.44023389421</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="6">
         <v>240623.84210000001</v>
       </c>
       <c r="I10" s="9">
         <v>67.098333333333301</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="10">
         <v>46.6</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="11">
         <f t="shared" si="0"/>
         <v>250950320</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="11">
         <v>5385200</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="14">
+      <c r="M10" s="13">
+        <v>8.8053403361755198E-3</v>
+      </c>
+      <c r="N10" s="6">
         <v>175222.84642004827</v>
       </c>
       <c r="O10" s="2">
@@ -988,7 +993,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="8">
         <v>35947</v>
       </c>
       <c r="B11" s="1">
@@ -1009,24 +1014,26 @@
       <c r="G11" s="2">
         <v>2702.3337204064501</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="6">
         <v>243185.3511</v>
       </c>
       <c r="I11" s="9">
         <v>67.67</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="10">
         <v>46.6</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="11">
         <f t="shared" si="0"/>
         <v>249393880</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="11">
         <v>5351800</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="14">
+      <c r="M11" s="13">
+        <v>8.5198340743689802E-3</v>
+      </c>
+      <c r="N11" s="6">
         <v>173967.8703699396</v>
       </c>
       <c r="O11" s="2">
@@ -1034,7 +1041,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="8">
         <v>36039</v>
       </c>
       <c r="B12" s="1">
@@ -1055,24 +1062,26 @@
       <c r="G12" s="2">
         <v>2401.0535860820801</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="6">
         <v>245746.86009999999</v>
       </c>
       <c r="I12" s="9">
         <v>68.427999999999997</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="10">
         <v>46.6</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="11">
         <f t="shared" si="0"/>
         <v>250297920</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="11">
         <v>5371200</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="14">
+      <c r="M12" s="13">
+        <v>1.1201418649327553E-2</v>
+      </c>
+      <c r="N12" s="6">
         <v>173662.6466819061</v>
       </c>
       <c r="O12" s="2">
@@ -1080,7 +1089,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="8">
         <v>36130</v>
       </c>
       <c r="B13" s="1">
@@ -1101,24 +1110,26 @@
       <c r="G13" s="2">
         <v>2499.2259438772799</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="6">
         <v>248308.36919999999</v>
       </c>
       <c r="I13" s="9">
         <v>69.453333333333305</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="10">
         <v>44.09</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="11">
         <f t="shared" si="0"/>
         <v>241057666.00000003</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="11">
         <v>5467400</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="14">
+      <c r="M13" s="13">
+        <v>1.4984119561192897E-2</v>
+      </c>
+      <c r="N13" s="6">
         <v>173533.27909193037</v>
       </c>
       <c r="O13" s="2">
@@ -1126,7 +1137,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="8">
         <v>36220</v>
       </c>
       <c r="B14" s="1">
@@ -1147,24 +1158,26 @@
       <c r="G14" s="2">
         <v>2535.5446603495502</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="6">
         <v>250869.87820000001</v>
       </c>
       <c r="I14" s="9">
         <v>69.659666666666695</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="9">
         <v>43.98</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="11">
         <f t="shared" si="0"/>
         <v>235860341.99999997</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="11">
         <v>5362900</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="14">
+      <c r="M14" s="13">
+        <v>2.9708197350747289E-3</v>
+      </c>
+      <c r="N14" s="6">
         <v>170665.65542105862</v>
       </c>
       <c r="O14" s="2">
@@ -1172,7 +1185,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="8">
         <v>36312</v>
       </c>
       <c r="B15" s="1">
@@ -1193,24 +1206,26 @@
       <c r="G15" s="2">
         <v>2594.3382231770702</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="6">
         <v>253568.7501</v>
       </c>
       <c r="I15" s="9">
         <v>70.322000000000003</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="9">
         <v>44.410000000000004</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="11">
         <f t="shared" si="0"/>
         <v>230634453.00000003</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="11">
         <v>5193300</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="14">
+      <c r="M15" s="13">
+        <v>9.5081323960777061E-3</v>
+      </c>
+      <c r="N15" s="6">
         <v>170425.16968320365</v>
       </c>
       <c r="O15" s="2">
@@ -1218,7 +1233,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="A16" s="8">
         <v>36404</v>
       </c>
       <c r="B16" s="1">
@@ -1239,24 +1254,26 @@
       <c r="G16" s="2">
         <v>2629.6710748764599</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="6">
         <v>256267.6219</v>
       </c>
       <c r="I16" s="9">
         <v>70.61</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="9">
         <v>43.870000000000005</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="11">
         <f t="shared" si="0"/>
         <v>229128623.00000003</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="11">
         <v>5222900</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="14">
+      <c r="M16" s="13">
+        <v>4.0954466596512711E-3</v>
+      </c>
+      <c r="N16" s="6">
         <v>169550.43069409343</v>
       </c>
       <c r="O16" s="2">
@@ -1264,7 +1281,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="A17" s="8">
         <v>36495</v>
       </c>
       <c r="B17" s="1">
@@ -1285,24 +1302,26 @@
       <c r="G17" s="2">
         <v>2935.4432547132601</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="6">
         <v>258966.4938</v>
       </c>
       <c r="I17" s="9">
         <v>71.156000000000006</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="9">
         <v>43.77</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="11">
         <f t="shared" si="0"/>
         <v>239982156.00000003</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="11">
         <v>5482800</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="14">
+      <c r="M17" s="13">
+        <v>7.7326157768022449E-3</v>
+      </c>
+      <c r="N17" s="6">
         <v>169255.04860905849</v>
       </c>
       <c r="O17" s="2">
@@ -1310,7 +1329,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="8">
         <v>36586</v>
       </c>
       <c r="B18" s="1">
@@ -1331,24 +1350,26 @@
       <c r="G18" s="2">
         <v>2709.5395505163901</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="6">
         <v>261665.36559999999</v>
       </c>
       <c r="I18" s="9">
         <v>71.885666666666694</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="9">
         <v>43.426666666666669</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="11">
         <f t="shared" si="0"/>
         <v>237413586.66666669</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="11">
         <v>5467000</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="14">
+      <c r="M18" s="13">
+        <v>1.0254464369367135E-2</v>
+      </c>
+      <c r="N18" s="6">
         <v>167757.12826381333</v>
       </c>
       <c r="O18" s="2">
@@ -1356,7 +1377,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="A19" s="8">
         <v>36678</v>
       </c>
       <c r="B19" s="1">
@@ -1377,24 +1398,26 @@
       <c r="G19" s="2">
         <v>2640.1138507282699</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="6">
         <v>264442.21710000001</v>
       </c>
       <c r="I19" s="9">
         <v>72.873333333333306</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="9">
         <v>44.086666666666666</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="11">
         <f t="shared" si="0"/>
         <v>236970242</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="11">
         <v>5375100</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="14">
+      <c r="M19" s="13">
+        <v>1.3739410267229149E-2</v>
+      </c>
+      <c r="N19" s="6">
         <v>168152.33488136707</v>
       </c>
       <c r="O19" s="2">
@@ -1402,7 +1425,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="8">
         <v>36770</v>
       </c>
       <c r="B20" s="1">
@@ -1423,24 +1446,26 @@
       <c r="G20" s="2">
         <v>2648.8626246415902</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="6">
         <v>267219.0686</v>
       </c>
       <c r="I20" s="9">
         <v>73.407666666666699</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="9">
         <v>43.343333333333334</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="11">
         <f t="shared" si="0"/>
         <v>230270127</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="11">
         <v>5312700</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="14">
+      <c r="M20" s="13">
+        <v>7.3323575153242141E-3</v>
+      </c>
+      <c r="N20" s="6">
         <v>167290.20637007349</v>
       </c>
       <c r="O20" s="2">
@@ -1448,7 +1473,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="A21" s="8">
         <v>36861</v>
       </c>
       <c r="B21" s="1">
@@ -1469,24 +1494,26 @@
       <c r="G21" s="2">
         <v>2883.4695887266498</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="6">
         <v>269995.92009999999</v>
       </c>
       <c r="I21" s="9">
         <v>74.409333333333294</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="9">
         <v>43.819999999999993</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="11">
         <f t="shared" si="0"/>
         <v>241075729.99999997</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="11">
         <v>5501500</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="14">
+      <c r="M21" s="13">
+        <v>1.3645259577790607E-2</v>
+      </c>
+      <c r="N21" s="6">
         <v>167402.23814013775</v>
       </c>
       <c r="O21" s="2">
@@ -1494,7 +1521,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="A22" s="8">
         <v>36951</v>
       </c>
       <c r="B22" s="1">
@@ -1515,24 +1542,26 @@
       <c r="G22" s="2">
         <v>3017.7363880932298</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="6">
         <v>272772.77159999998</v>
       </c>
       <c r="I22" s="9">
         <v>74.765000000000001</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="9">
         <v>43.73</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="11">
         <f t="shared" si="0"/>
         <v>236295054.99999997</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="11">
         <v>5403500</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="14">
+      <c r="M22" s="13">
+        <v>4.7798663250135359E-3</v>
+      </c>
+      <c r="N22" s="6">
         <v>165491.2994069127</v>
       </c>
       <c r="O22" s="2">
@@ -1540,7 +1569,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="A23" s="8">
         <v>37043</v>
       </c>
       <c r="B23" s="1">
@@ -1561,24 +1590,26 @@
       <c r="G23" s="2">
         <v>3004.72365026943</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="6">
         <v>275571.0171</v>
       </c>
       <c r="I23" s="9">
         <v>75.498999999999995</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="9">
         <v>44.233333333333327</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="11">
         <f t="shared" si="0"/>
         <v>238479593.33333331</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="11">
         <v>5391400</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="14">
+      <c r="M23" s="13">
+        <v>9.8174279408813573E-3</v>
+      </c>
+      <c r="N23" s="6">
         <v>165311.37135466334</v>
       </c>
       <c r="O23" s="2">
@@ -1586,7 +1617,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="A24" s="8">
         <v>37135</v>
       </c>
       <c r="B24" s="1">
@@ -1607,24 +1638,26 @@
       <c r="G24" s="2">
         <v>3012.5904791663602</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="6">
         <v>278369.26260000002</v>
       </c>
       <c r="I24" s="9">
         <v>76.08</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="9">
         <v>42.70000000000001</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="11">
         <f t="shared" si="0"/>
         <v>232108660.00000006</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="11">
         <v>5435800</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="14">
+      <c r="M24" s="13">
+        <v>7.6954661651148105E-3</v>
+      </c>
+      <c r="N24" s="6">
         <v>164675.39015142326</v>
       </c>
       <c r="O24" s="2">
@@ -1632,7 +1665,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="A25" s="8">
         <v>37226</v>
       </c>
       <c r="B25" s="1">
@@ -1653,24 +1686,26 @@
       <c r="G25" s="2">
         <v>3201.9545086531798</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="6">
         <v>281167.50809999998</v>
       </c>
       <c r="I25" s="9">
         <v>76.674333333333294</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="9">
         <v>43.359999999999992</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="11">
         <f t="shared" si="0"/>
         <v>244619775.99999997</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="11">
         <v>5641600</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="14">
+      <c r="M25" s="13">
+        <v>7.8119523308792837E-3</v>
+      </c>
+      <c r="N25" s="6">
         <v>164459.77130724065</v>
       </c>
       <c r="O25" s="2">
@@ -1678,7 +1713,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="8">
         <v>37316</v>
       </c>
       <c r="B26" s="1">
@@ -1699,24 +1734,26 @@
       <c r="G26" s="2">
         <v>3215.2491227386499</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="6">
         <v>283965.7537</v>
       </c>
       <c r="I26" s="9">
         <v>76.591333333333296</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="9">
         <v>43.29</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="11">
         <f t="shared" si="0"/>
         <v>240900192</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="11">
         <v>5564800</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="14">
+      <c r="M26" s="13">
+        <v>-1.0825004456075931E-3</v>
+      </c>
+      <c r="N26" s="6">
         <v>161209.29821262299</v>
       </c>
       <c r="O26" s="2">
@@ -1724,7 +1761,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="A27" s="8">
         <v>37408</v>
       </c>
       <c r="B27" s="1">
@@ -1745,24 +1782,26 @@
       <c r="G27" s="2">
         <v>3297.0252611475398</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="6">
         <v>286944.59159999999</v>
       </c>
       <c r="I27" s="9">
         <v>77.162999999999997</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="9">
         <v>43.893333333333338</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="11">
         <f t="shared" si="0"/>
         <v>240838330.66666669</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="11">
         <v>5486900</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="14">
+      <c r="M27" s="13">
+        <v>7.4638557887319879E-3</v>
+      </c>
+      <c r="N27" s="6">
         <v>161375.24577052196</v>
       </c>
       <c r="O27" s="2">
@@ -1770,7 +1809,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28" s="8">
         <v>37500</v>
       </c>
       <c r="B28" s="1">
@@ -1791,24 +1830,26 @@
       <c r="G28" s="2">
         <v>3339.13549727911</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="6">
         <v>289923.42959999997</v>
       </c>
       <c r="I28" s="9">
         <v>77.876333333333307</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="9">
         <v>43.646666666666668</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="11">
         <f t="shared" si="0"/>
         <v>239834068.66666669</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="11">
         <v>5494900</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="14">
+      <c r="M28" s="13">
+        <v>9.2444997386481841E-3</v>
+      </c>
+      <c r="N28" s="6">
         <v>161844.11219305769</v>
       </c>
       <c r="O28" s="2">
@@ -1816,7 +1857,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29" s="8">
         <v>37591</v>
       </c>
       <c r="B29" s="1">
@@ -1837,24 +1878,26 @@
       <c r="G29" s="2">
         <v>3626.5176857225701</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="6">
         <v>292902.26760000002</v>
       </c>
       <c r="I29" s="9">
         <v>78.930999999999997</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="9">
         <v>43.536666666666669</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="11">
         <f t="shared" si="0"/>
         <v>249700198</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="11">
         <v>5735400</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="14">
+      <c r="M29" s="13">
+        <v>1.354283928793118E-2</v>
+      </c>
+      <c r="N29" s="6">
         <v>162400.52569951102</v>
       </c>
       <c r="O29" s="2">
@@ -1862,7 +1905,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30" s="8">
         <v>37681</v>
       </c>
       <c r="B30" s="1">
@@ -1883,24 +1926,26 @@
       <c r="G30" s="2">
         <v>3990.1900644041398</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="6">
         <v>295881.10550000001</v>
       </c>
       <c r="I30" s="9">
         <v>79.484333333333296</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="9">
         <v>42.9</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="11">
         <f t="shared" si="0"/>
         <v>248094990</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="11">
         <v>5783100</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="14">
+      <c r="M30" s="13">
+        <v>7.0103423665391169E-3</v>
+      </c>
+      <c r="N30" s="6">
         <v>160855.81003727517</v>
       </c>
       <c r="O30" s="2">
@@ -1908,7 +1953,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31" s="8">
         <v>37773</v>
       </c>
       <c r="B31" s="1">
@@ -1929,24 +1974,26 @@
       <c r="G31" s="2">
         <v>3855.5330143551901</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="6">
         <v>299102.80099999998</v>
       </c>
       <c r="I31" s="9">
         <v>80.032333333333298</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="9">
         <v>43.52</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="11">
         <f t="shared" si="0"/>
         <v>250100736.00000003</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="11">
         <v>5746800</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="14">
+      <c r="M31" s="13">
+        <v>6.8944404138341986E-3</v>
+      </c>
+      <c r="N31" s="6">
         <v>161346.75764662994</v>
       </c>
       <c r="O31" s="2">
@@ -1954,7 +2001,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="A32" s="8">
         <v>37865</v>
       </c>
       <c r="B32" s="1">
@@ -1975,24 +2022,26 @@
       <c r="G32" s="2">
         <v>3802.3250055600201</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="6">
         <v>302324.4964</v>
       </c>
       <c r="I32" s="9">
         <v>80</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="9">
         <v>43.353333333333332</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="11">
         <f t="shared" si="0"/>
         <v>246580754</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="11">
         <v>5687700</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="14">
+      <c r="M32" s="13">
+        <v>-4.0400338196601692E-4</v>
+      </c>
+      <c r="N32" s="6">
         <v>160214.05098538238</v>
       </c>
       <c r="O32" s="2">
@@ -2000,7 +2049,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="A33" s="8">
         <v>37956</v>
       </c>
       <c r="B33" s="1">
@@ -2021,24 +2070,26 @@
       <c r="G33" s="2">
         <v>4219.9879117117698</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="6">
         <v>305546.19179999997</v>
       </c>
       <c r="I33" s="9">
         <v>79.772333333333293</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="9">
         <v>43.49</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="11">
         <f t="shared" si="0"/>
         <v>258174036</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="11">
         <v>5936400</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="14">
+      <c r="M33" s="13">
+        <v>-2.8458333333338361E-3</v>
+      </c>
+      <c r="N33" s="6">
         <v>158476.45080541173</v>
       </c>
       <c r="O33" s="2">
@@ -2046,7 +2097,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="A34" s="8">
         <v>38047</v>
       </c>
       <c r="B34" s="1">
@@ -2067,24 +2118,26 @@
       <c r="G34" s="2">
         <v>4561.98337069635</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="6">
         <v>308767.8872</v>
       </c>
       <c r="I34" s="9">
         <v>79.489000000000004</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="9">
         <v>42.766666666666673</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="11">
         <f t="shared" si="0"/>
         <v>252827980.00000003</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="11">
         <v>5911800</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="14">
+      <c r="M34" s="13">
+        <v>-3.551774424716451E-3</v>
+      </c>
+      <c r="N34" s="6">
         <v>156075.83501414768</v>
       </c>
       <c r="O34" s="2">
@@ -2092,7 +2145,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="8">
         <v>38139</v>
       </c>
       <c r="B35" s="1">
@@ -2113,24 +2166,26 @@
       <c r="G35" s="2">
         <v>4605.2871956071203</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="6">
         <v>312704.26490000001</v>
       </c>
       <c r="I35" s="9">
         <v>80.402000000000001</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="9">
         <v>43.463333333333338</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="11">
         <f t="shared" si="0"/>
         <v>253582472.00000003</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="11">
         <v>5834400</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="14">
+      <c r="M35" s="13">
+        <v>1.1485865968876154E-2</v>
+      </c>
+      <c r="N35" s="6">
         <v>157399.93987293486</v>
       </c>
       <c r="O35" s="2">
@@ -2138,7 +2193,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+      <c r="A36" s="8">
         <v>38231</v>
       </c>
       <c r="B36" s="1">
@@ -2159,24 +2214,26 @@
       <c r="G36" s="2">
         <v>4736.7100249717096</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="6">
         <v>316640.64260000002</v>
       </c>
       <c r="I36" s="9">
         <v>81.180666666666696</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="9">
         <v>42.946666666666665</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="11">
         <f t="shared" si="0"/>
         <v>251362545.33333331</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="11">
         <v>5852900</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="14">
+      <c r="M36" s="13">
+        <v>9.6846678772504989E-3</v>
+      </c>
+      <c r="N36" s="6">
         <v>158118.27225974042</v>
       </c>
       <c r="O36" s="2">
@@ -2184,7 +2241,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="A37" s="8">
         <v>38322</v>
       </c>
       <c r="B37" s="1">
@@ -2205,24 +2262,26 @@
       <c r="G37" s="2">
         <v>5112.1079926163002</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="6">
         <v>320577.02029999997</v>
       </c>
       <c r="I37" s="9">
         <v>81.584999999999994</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="9">
         <v>42.993333333333332</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="11">
         <f t="shared" si="0"/>
         <v>265986855.33333331</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="11">
         <v>6186700</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="14">
+      <c r="M37" s="13">
+        <v>4.9806604199681944E-3</v>
+      </c>
+      <c r="N37" s="6">
         <v>157805.27846483016</v>
       </c>
       <c r="O37" s="2">
@@ -2230,7 +2289,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+      <c r="A38" s="8">
         <v>38412</v>
       </c>
       <c r="B38" s="1">
@@ -2251,24 +2310,26 @@
       <c r="G38" s="2">
         <v>5111.8876150035603</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="6">
         <v>324513.39799999999</v>
       </c>
       <c r="I38" s="9">
         <v>81.312666666666701</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="9">
         <v>41.63</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="11">
         <f t="shared" si="0"/>
         <v>256503245.00000003</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="11">
         <v>6161500</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="14">
+      <c r="M38" s="13">
+        <v>-3.3380319094599882E-3</v>
+      </c>
+      <c r="N38" s="6">
         <v>154264.73195111682</v>
       </c>
       <c r="O38" s="2">
@@ -2276,7 +2337,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+      <c r="A39" s="8">
         <v>38504</v>
       </c>
       <c r="B39" s="1">
@@ -2297,24 +2358,26 @@
       <c r="G39" s="2">
         <v>5092.3851797955704</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="6">
         <v>328591.32380000001</v>
       </c>
       <c r="I39" s="9">
         <v>82.625666666666703</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="9">
         <v>41.860000000000007</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="11">
         <f t="shared" si="0"/>
         <v>256141340.00000003</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="11">
         <v>6119000</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="14">
+      <c r="M39" s="13">
+        <v>1.6147545687838737E-2</v>
+      </c>
+      <c r="N39" s="6">
         <v>154580.94262018087</v>
       </c>
       <c r="O39" s="2">
@@ -2322,7 +2385,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+      <c r="A40" s="8">
         <v>38596</v>
       </c>
       <c r="B40" s="1">
@@ -2343,24 +2406,26 @@
       <c r="G40" s="2">
         <v>4944.71544473228</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="6">
         <v>332669.24959999998</v>
       </c>
       <c r="I40" s="9">
         <v>83.876000000000005</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="9">
         <v>41.216666666666669</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="11">
         <f t="shared" si="0"/>
         <v>252542760</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="11">
         <v>6127200</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="14">
+      <c r="M40" s="13">
+        <v>1.5132505234450569E-2</v>
+      </c>
+      <c r="N40" s="6">
         <v>154733.58945490385</v>
       </c>
       <c r="O40" s="2">
@@ -2368,7 +2433,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+      <c r="A41" s="8">
         <v>38687</v>
       </c>
       <c r="B41" s="1">
@@ -2389,24 +2454,26 @@
       <c r="G41" s="2">
         <v>5484.5299065904801</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="6">
         <v>336747.17550000001</v>
       </c>
       <c r="I41" s="9">
         <v>84.691666666666706</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="9">
         <v>41.803333333333335</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="11">
         <f t="shared" si="0"/>
         <v>262257392</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="11">
         <v>6273600</v>
       </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="14">
+      <c r="M41" s="13">
+        <v>9.7246729298810231E-3</v>
+      </c>
+      <c r="N41" s="6">
         <v>154317.932593067</v>
       </c>
       <c r="O41" s="2">
@@ -2414,7 +2481,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+      <c r="A42" s="8">
         <v>38777</v>
       </c>
       <c r="B42" s="1">
@@ -2435,24 +2502,26 @@
       <c r="G42" s="2">
         <v>5424.7313811001504</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="6">
         <v>340825.10129999998</v>
       </c>
       <c r="I42" s="9">
         <v>84.617333333333306</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="9">
         <v>41.086666666666666</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="11">
         <f t="shared" si="0"/>
         <v>258011940.66666666</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="11">
         <v>6279700</v>
       </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="14">
+      <c r="M42" s="13">
+        <v>-8.7769359441187771E-4</v>
+      </c>
+      <c r="N42" s="6">
         <v>151953.88849250239</v>
       </c>
       <c r="O42" s="2">
@@ -2460,7 +2529,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="A43" s="8">
         <v>38869</v>
       </c>
       <c r="B43" s="1">
@@ -2481,24 +2550,26 @@
       <c r="G43" s="2">
         <v>5545.8251879620202</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="6">
         <v>345280.09139999998</v>
       </c>
       <c r="I43" s="9">
         <v>85.771666666666704</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="9">
         <v>42.103333333333332</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="11">
         <f t="shared" si="0"/>
         <v>260404906.33333331</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="11">
         <v>6184900</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="14">
+      <c r="M43" s="13">
+        <v>1.364180703717203E-2</v>
+      </c>
+      <c r="N43" s="6">
         <v>152201.48787253932</v>
       </c>
       <c r="O43" s="2">
@@ -2506,7 +2577,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="A44" s="8">
         <v>38961</v>
       </c>
       <c r="B44" s="1">
@@ -2527,24 +2598,26 @@
       <c r="G44" s="2">
         <v>5573.0231852207198</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="6">
         <v>349735.08159999998</v>
       </c>
       <c r="I44" s="9">
         <v>86.801000000000002</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="9">
         <v>41.68</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="11">
         <f t="shared" si="0"/>
         <v>258907824</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="11">
         <v>6211800</v>
       </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="14">
+      <c r="M44" s="13">
+        <v>1.2000854983191393E-2</v>
+      </c>
+      <c r="N44" s="6">
         <v>152161.87131962026</v>
       </c>
       <c r="O44" s="2">
@@ -2552,7 +2625,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+      <c r="A45" s="8">
         <v>39052</v>
       </c>
       <c r="B45" s="1">
@@ -2573,24 +2646,26 @@
       <c r="G45" s="2">
         <v>6053.6179837623604</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="6">
         <v>354190.07169999997</v>
       </c>
       <c r="I45" s="9">
         <v>86.594666666666697</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="9">
         <v>41.776666666666664</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="11">
         <f t="shared" si="0"/>
         <v>267830209.99999997</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="11">
         <v>6411000</v>
       </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="14">
+      <c r="M45" s="13">
+        <v>-2.3770847494073207E-3</v>
+      </c>
+      <c r="N45" s="6">
         <v>149769.56751969425</v>
       </c>
       <c r="O45" s="2">
@@ -2598,7 +2673,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+      <c r="A46" s="8">
         <v>39142</v>
       </c>
       <c r="B46" s="1">
@@ -2619,24 +2694,26 @@
       <c r="G46" s="2">
         <v>6161.0155975667703</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="6">
         <v>358645.06189999997</v>
       </c>
       <c r="I46" s="9">
         <v>86.892333333333298</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="9">
         <v>40.75</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="11">
         <f t="shared" si="0"/>
         <v>263200175</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="11">
         <v>6458900</v>
       </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="14">
+      <c r="M46" s="13">
+        <v>3.4374711298609667E-3</v>
+      </c>
+      <c r="N46" s="6">
         <v>146979.66680518899</v>
       </c>
       <c r="O46" s="2">
@@ -2644,7 +2721,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
+      <c r="A47" s="8">
         <v>39234</v>
       </c>
       <c r="B47" s="1">
@@ -2665,24 +2742,26 @@
       <c r="G47" s="2">
         <v>6245.3937983717697</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="6">
         <v>363845.28249999997</v>
       </c>
       <c r="I47" s="9">
         <v>88.227999999999994</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="9">
         <v>41.513333333333328</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="11">
         <f t="shared" si="0"/>
         <v>265589852.66666663</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="11">
         <v>6397700</v>
       </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="14">
+      <c r="M47" s="13">
+        <v>1.5371513405479164E-2</v>
+      </c>
+      <c r="N47" s="6">
         <v>146816.88358484939</v>
       </c>
       <c r="O47" s="2">
@@ -2690,7 +2769,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+      <c r="A48" s="8">
         <v>39326</v>
       </c>
       <c r="B48" s="1">
@@ -2711,24 +2790,26 @@
       <c r="G48" s="2">
         <v>6251.1142412372101</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="6">
         <v>369045.50319999998</v>
       </c>
       <c r="I48" s="9">
         <v>90.956333333333305</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="9">
         <v>40.669999999999995</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="11">
         <f t="shared" si="0"/>
         <v>259132971.99999997</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="11">
         <v>6371600</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="14">
+      <c r="M48" s="13">
+        <v>3.0923667467621509E-2</v>
+      </c>
+      <c r="N48" s="6">
         <v>147483.02414746446</v>
       </c>
       <c r="O48" s="2">
@@ -2736,7 +2817,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+      <c r="A49" s="8">
         <v>39417</v>
       </c>
       <c r="B49" s="1">
@@ -2757,24 +2838,26 @@
       <c r="G49" s="2">
         <v>6628.3776320707202</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="6">
         <v>374245.72379999998</v>
       </c>
       <c r="I49" s="9">
         <v>92.861333333333306</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="9">
         <v>40.910000000000004</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="11">
         <f t="shared" si="0"/>
         <v>268664152</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="11">
         <v>6567200</v>
       </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="14">
+      <c r="M49" s="13">
+        <v>2.0944116041030698E-2</v>
+      </c>
+      <c r="N49" s="6">
         <v>148169.64579548905</v>
       </c>
       <c r="O49" s="2">
@@ -2782,7 +2865,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="A50" s="8">
         <v>39508</v>
       </c>
       <c r="B50" s="1">
@@ -2803,24 +2886,26 @@
       <c r="G50" s="2">
         <v>6531.4666208302497</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="6">
         <v>379445.94449999998</v>
       </c>
       <c r="I50" s="9">
         <v>93.853999999999999</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="9">
         <v>40.023333333333333</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="11">
         <f t="shared" si="0"/>
         <v>265666882</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="11">
         <v>6637800</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="14">
+      <c r="M50" s="13">
+        <v>1.0689773999942856E-2</v>
+      </c>
+      <c r="N50" s="6">
         <v>146031.97361952055</v>
       </c>
       <c r="O50" s="2">
@@ -2828,7 +2913,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+      <c r="A51" s="8">
         <v>39600</v>
       </c>
       <c r="B51" s="1">
@@ -2849,24 +2934,26 @@
       <c r="G51" s="2">
         <v>6582.6343329603296</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="6">
         <v>383731.37670000002</v>
       </c>
       <c r="I51" s="9">
         <v>96.0683333333333</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="9">
         <v>40.97</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="11">
         <f t="shared" si="0"/>
         <v>269709607</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="11">
         <v>6583100</v>
       </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="14">
+      <c r="M51" s="13">
+        <v>2.3593382629757926E-2</v>
+      </c>
+      <c r="N51" s="6">
         <v>147036.71847023137</v>
       </c>
       <c r="O51" s="2">
@@ -2874,7 +2961,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+      <c r="A52" s="8">
         <v>39692</v>
       </c>
       <c r="B52" s="1">
@@ -2895,24 +2982,26 @@
       <c r="G52" s="2">
         <v>6199.6688022644403</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="6">
         <v>388016.8089</v>
       </c>
       <c r="I52" s="9">
         <v>99.448999999999998</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="9">
         <v>40.403333333333336</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="11">
         <f t="shared" si="0"/>
         <v>266835734.33333334</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="11">
         <v>6604300</v>
       </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="14">
+      <c r="M52" s="13">
+        <v>3.5190229177148556E-2</v>
+      </c>
+      <c r="N52" s="6">
         <v>149088.55583306961</v>
       </c>
       <c r="O52" s="2">
@@ -2920,7 +3009,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+      <c r="A53" s="8">
         <v>39783</v>
       </c>
       <c r="B53" s="1">
@@ -2941,24 +3030,26 @@
       <c r="G53" s="2">
         <v>6603.6572492750802</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="6">
         <v>392302.24119999999</v>
       </c>
       <c r="I53" s="9">
         <v>100.85266666666701</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="9">
         <v>40.276666666666664</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="11">
         <f t="shared" si="0"/>
         <v>271480844</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="11">
         <v>6740400</v>
       </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="14">
+      <c r="M53" s="13">
+        <v>1.4114437215728737E-2</v>
+      </c>
+      <c r="N53" s="6">
         <v>148554.07531831798</v>
       </c>
       <c r="O53" s="2">
@@ -2966,7 +3057,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
+      <c r="A54" s="8">
         <v>39873</v>
       </c>
       <c r="B54" s="1">
@@ -2987,24 +3078,26 @@
       <c r="G54" s="2">
         <v>6555.1848364019897</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="6">
         <v>396587.67340000003</v>
       </c>
       <c r="I54" s="9">
         <v>99.126666666666694</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="9">
         <v>39.44</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="11">
         <f t="shared" si="0"/>
         <v>260599799.99999997</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="11">
         <v>6607500</v>
       </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="14">
+      <c r="M54" s="13">
+        <v>-1.7114073995732778E-2</v>
+      </c>
+      <c r="N54" s="6">
         <v>143365.57439110227</v>
       </c>
       <c r="O54" s="2">
@@ -3012,7 +3105,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+      <c r="A55" s="8">
         <v>39965</v>
       </c>
       <c r="B55" s="1">
@@ -3033,24 +3126,26 @@
       <c r="G55" s="2">
         <v>7168.4944016745203</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="6">
         <v>398154.76689999999</v>
       </c>
       <c r="I55" s="9">
         <v>99.0566666666667</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="9">
         <v>40.06</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="11">
         <f t="shared" si="0"/>
         <v>260962858</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="11">
         <v>6514300</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="14">
+      <c r="M55" s="13">
+        <v>-7.0616719348974197E-4</v>
+      </c>
+      <c r="N55" s="6">
         <v>141966.22940564691</v>
       </c>
       <c r="O55" s="2">
@@ -3058,7 +3153,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
+      <c r="A56" s="8">
         <v>40057</v>
       </c>
       <c r="B56" s="1">
@@ -3079,24 +3174,26 @@
       <c r="G56" s="2">
         <v>7575.1121827018496</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="6">
         <v>399721.86040000001</v>
       </c>
       <c r="I56" s="9">
         <v>98.853333333333296</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="9">
         <v>39.75</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="11">
         <f t="shared" si="0"/>
         <v>259806000</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="11">
         <v>6536000</v>
       </c>
-      <c r="M56" s="3"/>
-      <c r="N56" s="14">
+      <c r="M56" s="13">
+        <v>-2.0526971093993754E-3</v>
+      </c>
+      <c r="N56" s="6">
         <v>140004.47654814171</v>
       </c>
       <c r="O56" s="2">
@@ -3104,7 +3201,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
+      <c r="A57" s="8">
         <v>40148</v>
       </c>
       <c r="B57" s="1">
@@ -3125,24 +3222,26 @@
       <c r="G57" s="2">
         <v>8245.6923413593595</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="6">
         <v>401288.95400000003</v>
       </c>
       <c r="I57" s="9">
         <v>98.973333333333301</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="9">
         <v>40.309999999999995</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="11">
         <f t="shared" si="0"/>
         <v>270520409.99999994</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="11">
         <v>6711000</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="14">
+      <c r="M57" s="13">
+        <v>1.2139196115457708E-3</v>
+      </c>
+      <c r="N57" s="6">
         <v>138431.4757835335</v>
       </c>
       <c r="O57" s="2">
@@ -3150,7 +3249,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
+      <c r="A58" s="8">
         <v>40238</v>
       </c>
       <c r="B58" s="1">
@@ -3171,24 +3270,26 @@
       <c r="G58" s="2">
         <v>8741.5383045869294</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="6">
         <v>402856.04749999999</v>
       </c>
-      <c r="I58" s="10">
-        <v>99.243644689439421</v>
-      </c>
-      <c r="J58" s="5">
+      <c r="I58" s="9">
+        <v>99.241138600080845</v>
+      </c>
+      <c r="J58" s="9">
         <v>39.68333333333333</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="11">
         <f t="shared" si="0"/>
         <v>283981870</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="11">
         <v>7156200</v>
       </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="14">
+      <c r="M58" s="13">
+        <v>2.7058325483047038E-3</v>
+      </c>
+      <c r="N58" s="6">
         <v>128912.16345200695</v>
       </c>
       <c r="O58" s="2">
@@ -3196,7 +3297,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
+      <c r="A59" s="8">
         <v>40330</v>
       </c>
       <c r="B59" s="1">
@@ -3217,24 +3318,26 @@
       <c r="G59" s="2">
         <v>9345.0822001180204</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="6">
         <v>408602.70659999998</v>
       </c>
-      <c r="I59" s="10">
-        <v>100.09086250977411</v>
-      </c>
-      <c r="J59" s="5">
+      <c r="I59" s="9">
+        <v>100.08833502656637</v>
+      </c>
+      <c r="J59" s="9">
         <v>40.903333333333336</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="11">
         <f t="shared" si="0"/>
         <v>295387512</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="11">
         <v>7221600</v>
       </c>
-      <c r="M59" s="3"/>
-      <c r="N59" s="14">
+      <c r="M59" s="13">
+        <v>8.5367463376204589E-3</v>
+      </c>
+      <c r="N59" s="6">
         <v>128295.11575979878</v>
       </c>
       <c r="O59" s="2">
@@ -3242,7 +3345,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
+      <c r="A60" s="8">
         <v>40422</v>
       </c>
       <c r="B60" s="1">
@@ -3263,24 +3366,26 @@
       <c r="G60" s="2">
         <v>9458.8902942868499</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="6">
         <v>414349.36580000003</v>
       </c>
-      <c r="I60" s="10">
-        <v>100.92279774349923</v>
-      </c>
-      <c r="J60" s="5">
+      <c r="I60" s="9">
+        <v>100.9202492523565</v>
+      </c>
+      <c r="J60" s="9">
         <v>39.546666666666667</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="11">
         <f t="shared" si="0"/>
         <v>292230093.33333331</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="11">
         <v>7389500</v>
       </c>
-      <c r="M60" s="3"/>
-      <c r="N60" s="14">
+      <c r="M60" s="13">
+        <v>8.311800027139174E-3</v>
+      </c>
+      <c r="N60" s="6">
         <v>127601.01812475472</v>
       </c>
       <c r="O60" s="2">
@@ -3288,7 +3393,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+      <c r="A61" s="8">
         <v>40513</v>
       </c>
       <c r="B61" s="1">
@@ -3309,24 +3414,26 @@
       <c r="G61" s="2">
         <v>9705.7049164163891</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="6">
         <v>420096.02500000002</v>
       </c>
-      <c r="I61" s="10">
-        <v>101.34470956571803</v>
-      </c>
-      <c r="J61" s="5">
+      <c r="I61" s="9">
+        <v>101.3421504205054</v>
+      </c>
+      <c r="J61" s="9">
         <v>39.826666666666661</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="11">
         <f t="shared" si="0"/>
         <v>301579467.99999994</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="11">
         <v>7572300</v>
       </c>
-      <c r="M61" s="3"/>
-      <c r="N61" s="14">
+      <c r="M61" s="13">
+        <v>4.1805402907192585E-3</v>
+      </c>
+      <c r="N61" s="6">
         <v>126441.48733153693</v>
       </c>
       <c r="O61" s="2">
@@ -3334,7 +3441,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="A62" s="8">
         <v>40603</v>
       </c>
       <c r="B62" s="1">
@@ -3355,24 +3462,26 @@
       <c r="G62" s="2">
         <v>9533.8321398599401</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="6">
         <v>425842.68420000002</v>
       </c>
-      <c r="I62" s="10">
-        <v>102.13895867746461</v>
-      </c>
-      <c r="J62" s="5">
+      <c r="I62" s="9">
+        <v>102.1363794759627</v>
+      </c>
+      <c r="J62" s="9">
         <v>39.369999999999997</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="11">
         <f t="shared" si="0"/>
         <v>300152943</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="11">
         <v>7623900</v>
       </c>
-      <c r="M62" s="3"/>
-      <c r="N62" s="14">
+      <c r="M62" s="13">
+        <v>7.837104819285446E-3</v>
+      </c>
+      <c r="N62" s="6">
         <v>125246.63747226338</v>
       </c>
       <c r="O62" s="2">
@@ -3380,7 +3489,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="A63" s="8">
         <v>40695</v>
       </c>
       <c r="B63" s="1">
@@ -3401,24 +3510,26 @@
       <c r="G63" s="2">
         <v>9849.6936096747504</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="6">
         <v>432321.85450000002</v>
       </c>
-      <c r="I63" s="10">
-        <v>103.39792362626497</v>
-      </c>
-      <c r="J63" s="5">
+      <c r="I63" s="9">
+        <v>103.3953126335217</v>
+      </c>
+      <c r="J63" s="9">
         <v>39.716666666666661</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="11">
         <f t="shared" si="0"/>
         <v>305758758.33333331</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63" s="11">
         <v>7698500</v>
       </c>
-      <c r="M63" s="3"/>
-      <c r="N63" s="14">
+      <c r="M63" s="13">
+        <v>1.2326001411233529E-2</v>
+      </c>
+      <c r="N63" s="6">
         <v>125430.79540924645</v>
       </c>
       <c r="O63" s="2">
@@ -3426,7 +3537,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="A64" s="8">
         <v>40787</v>
       </c>
       <c r="B64" s="1">
@@ -3447,24 +3558,26 @@
       <c r="G64" s="2">
         <v>9833.0266306573594</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="6">
         <v>438801.02490000002</v>
       </c>
-      <c r="I64" s="10">
-        <v>104.06785260163645</v>
-      </c>
-      <c r="J64" s="5">
+      <c r="I64" s="9">
+        <v>104.06522469192201</v>
+      </c>
+      <c r="J64" s="9">
         <v>39.51</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="11">
         <f t="shared" si="0"/>
         <v>303768684</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64" s="11">
         <v>7688400</v>
       </c>
-      <c r="M64" s="3"/>
-      <c r="N64" s="14">
+      <c r="M64" s="13">
+        <v>6.479133737665419E-3</v>
+      </c>
+      <c r="N64" s="6">
         <v>124141.5929019961</v>
       </c>
       <c r="O64" s="2">
@@ -3472,7 +3585,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+      <c r="A65" s="8">
         <v>40878</v>
       </c>
       <c r="B65" s="1">
@@ -3493,24 +3606,26 @@
       <c r="G65" s="2">
         <v>10386.8840332993</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="6">
         <v>445280.19530000002</v>
       </c>
-      <c r="I65" s="10">
-        <v>105.411704127871</v>
-      </c>
-      <c r="J65" s="5">
+      <c r="I65" s="9">
+        <v>105.40904228336889</v>
+      </c>
+      <c r="J65" s="9">
         <v>39.553333333333335</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="11">
         <f t="shared" si="0"/>
         <v>307997851.33333331</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65" s="11">
         <v>7786900</v>
       </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="14">
+      <c r="M65" s="13">
+        <v>1.2913224330463503E-2</v>
+      </c>
+      <c r="N65" s="6">
         <v>123952.77426881714</v>
       </c>
       <c r="O65" s="2">
@@ -3518,7 +3633,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+      <c r="A66" s="8">
         <v>40969</v>
       </c>
       <c r="B66" s="1">
@@ -3539,24 +3654,26 @@
       <c r="G66" s="2">
         <v>10231.062742350699</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="6">
         <v>451759.36560000002</v>
       </c>
-      <c r="I66" s="10">
-        <v>106.37587978253221</v>
-      </c>
-      <c r="J66" s="5">
+      <c r="I66" s="9">
+        <v>106.37319359077487</v>
+      </c>
+      <c r="J66" s="9">
         <v>39.100046666666664</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="11">
         <f t="shared" si="0"/>
         <v>306732046.09066665</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="11">
         <v>7844800</v>
       </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="14">
+      <c r="M66" s="13">
+        <v>9.1467609089367959E-3</v>
+      </c>
+      <c r="N66" s="6">
         <v>122451.55258626933</v>
       </c>
       <c r="O66" s="2">
@@ -3564,7 +3681,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
+      <c r="A67" s="8">
         <v>41061</v>
       </c>
       <c r="B67" s="1">
@@ -3585,24 +3702,26 @@
       <c r="G67" s="2">
         <v>10573.8264005411</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="6">
         <v>458623.70500000002</v>
       </c>
-      <c r="I67" s="10">
-        <v>106.59971254083723</v>
-      </c>
-      <c r="J67" s="5">
+      <c r="I67" s="9">
+        <v>106.59702069688022</v>
+      </c>
+      <c r="J67" s="9">
         <v>39.376711333333333</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="11">
         <f t="shared" ref="K67:K97" si="1">J67*L67</f>
         <v>307906194.27099997</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67" s="11">
         <v>7819500</v>
       </c>
-      <c r="M67" s="3"/>
-      <c r="N67" s="14">
+      <c r="M67" s="13">
+        <v>2.1041683393132416E-3</v>
+      </c>
+      <c r="N67" s="6">
         <v>121782.67415631028</v>
       </c>
       <c r="O67" s="2">
@@ -3610,7 +3729,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
+      <c r="A68" s="8">
         <v>41153</v>
       </c>
       <c r="B68" s="1">
@@ -3631,24 +3750,26 @@
       <c r="G68" s="2">
         <v>10629.746712046001</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="6">
         <v>465488.04430000001</v>
       </c>
-      <c r="I68" s="10">
-        <v>106.81574376122502</v>
-      </c>
-      <c r="J68" s="5">
+      <c r="I68" s="9">
+        <v>106.81304646207194</v>
+      </c>
+      <c r="J68" s="9">
         <v>38.506930666666669</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="11">
         <f t="shared" si="1"/>
         <v>303207422.76240003</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L68" s="11">
         <v>7874100</v>
       </c>
-      <c r="M68" s="3"/>
-      <c r="N68" s="14">
+      <c r="M68" s="13">
+        <v>2.0265647555573639E-3</v>
+      </c>
+      <c r="N68" s="6">
         <v>119808.34657240224</v>
       </c>
       <c r="O68" s="2">
@@ -3656,7 +3777,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
+      <c r="A69" s="8">
         <v>41244</v>
       </c>
       <c r="B69" s="1">
@@ -3677,24 +3798,26 @@
       <c r="G69" s="2">
         <v>11166.224269884</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="6">
         <v>472352.3836</v>
       </c>
-      <c r="I69" s="10">
-        <v>107.70651607564761</v>
-      </c>
-      <c r="J69" s="5">
+      <c r="I69" s="9">
+        <v>107.70379628281218</v>
+      </c>
+      <c r="J69" s="9">
         <v>38.799151333333334</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="11">
         <f t="shared" si="1"/>
         <v>308542491.1480667</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L69" s="11">
         <v>7952300</v>
       </c>
-      <c r="M69" s="3"/>
-      <c r="N69" s="14">
+      <c r="M69" s="13">
+        <v>8.3393354112087301E-3</v>
+      </c>
+      <c r="N69" s="6">
         <v>119084.00376942898</v>
       </c>
       <c r="O69" s="2">
@@ -3702,7 +3825,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
+      <c r="A70" s="8">
         <v>41334</v>
       </c>
       <c r="B70" s="1">
@@ -3723,24 +3846,26 @@
       <c r="G70" s="2">
         <v>11273.9741982877</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="6">
         <v>479216.72289999999</v>
       </c>
-      <c r="I70" s="10">
-        <v>107.93894554372328</v>
-      </c>
-      <c r="J70" s="5">
+      <c r="I70" s="9">
+        <v>107.93621988160507</v>
+      </c>
+      <c r="J70" s="9">
         <v>38.413157333333338</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="11">
         <f t="shared" si="1"/>
         <v>306948016.30346668</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L70" s="11">
         <v>7990700</v>
       </c>
-      <c r="M70" s="3"/>
-      <c r="N70" s="14">
+      <c r="M70" s="13">
+        <v>2.1579889178890777E-3</v>
+      </c>
+      <c r="N70" s="6">
         <v>117323.00646484912</v>
       </c>
       <c r="O70" s="2">
@@ -3748,7 +3873,7 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
+      <c r="A71" s="8">
         <v>41426</v>
       </c>
       <c r="B71" s="1">
@@ -3769,24 +3894,26 @@
       <c r="G71" s="2">
         <v>11742.1773552836</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="6">
         <v>485603.34090000001</v>
       </c>
-      <c r="I71" s="10">
-        <v>107.95721478542013</v>
-      </c>
-      <c r="J71" s="5">
+      <c r="I71" s="9">
+        <v>107.95448866196907</v>
+      </c>
+      <c r="J71" s="9">
         <v>39.626432000000001</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="11">
         <f t="shared" si="1"/>
         <v>317177887.01440001</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L71" s="11">
         <v>8004200</v>
       </c>
-      <c r="M71" s="3"/>
-      <c r="N71" s="14">
+      <c r="M71" s="13">
+        <v>1.6925532860086686E-4</v>
+      </c>
+      <c r="N71" s="6">
         <v>116382.76683948003</v>
       </c>
       <c r="O71" s="2">
@@ -3794,7 +3921,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
+      <c r="A72" s="8">
         <v>41518</v>
       </c>
       <c r="B72" s="1">
@@ -3815,24 +3942,26 @@
       <c r="G72" s="2">
         <v>11810.1570111573</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="6">
         <v>491989.95880000002</v>
       </c>
-      <c r="I72" s="10">
-        <v>109.06573203566032</v>
-      </c>
-      <c r="J72" s="5">
+      <c r="I72" s="9">
+        <v>109.06297792005627</v>
+      </c>
+      <c r="J72" s="9">
         <v>38.552905000000003</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="11">
         <f t="shared" si="1"/>
         <v>308839611.37400001</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="11">
         <v>8010800</v>
       </c>
-      <c r="M72" s="3"/>
-      <c r="N72" s="14">
+      <c r="M72" s="13">
+        <v>1.0268116424117802E-2</v>
+      </c>
+      <c r="N72" s="6">
         <v>115899.15399992473</v>
       </c>
       <c r="O72" s="2">
@@ -3840,7 +3969,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="17">
+      <c r="A73" s="8">
         <v>41609</v>
       </c>
       <c r="B73" s="1">
@@ -3861,24 +3990,26 @@
       <c r="G73" s="2">
         <v>12239.233996380401</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="6">
         <v>498376.57669999998</v>
       </c>
-      <c r="I73" s="10">
-        <v>110.19126143649369</v>
-      </c>
-      <c r="J73" s="5">
+      <c r="I73" s="9">
+        <v>110.18847889914778</v>
+      </c>
+      <c r="J73" s="9">
         <v>38.802265666666663</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="11">
         <f t="shared" si="1"/>
         <v>316215183.8239333</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="11">
         <v>8149400</v>
       </c>
-      <c r="M73" s="3"/>
-      <c r="N73" s="14">
+      <c r="M73" s="13">
+        <v>1.0319734529131513E-2</v>
+      </c>
+      <c r="N73" s="6">
         <v>115495.04571335798</v>
       </c>
       <c r="O73" s="2">
@@ -3886,7 +4017,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
+      <c r="A74" s="8">
         <v>41699</v>
       </c>
       <c r="B74" s="1">
@@ -3907,24 +4038,26 @@
       <c r="G74" s="2">
         <v>12091.2501226773</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="6">
         <v>504763.19459999999</v>
       </c>
-      <c r="I74" s="10">
-        <v>101.28188956995682</v>
-      </c>
-      <c r="J74" s="5">
+      <c r="I74" s="9">
+        <v>111.28573001376111</v>
+      </c>
+      <c r="J74" s="9">
         <v>37.797109666666664</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="11">
         <f t="shared" si="1"/>
         <v>308280785.86326665</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="11">
         <v>8156200</v>
       </c>
-      <c r="M74" s="3"/>
-      <c r="N74" s="14">
+      <c r="M74" s="13">
+        <v>9.9579477416836815E-3</v>
+      </c>
+      <c r="N74" s="6">
         <v>114459.9822549735</v>
       </c>
       <c r="O74" s="2">
@@ -3932,7 +4065,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="17">
+      <c r="A75" s="8">
         <v>41791</v>
       </c>
       <c r="B75" s="1">
@@ -3953,24 +4086,26 @@
       <c r="G75" s="2">
         <v>12489.233352203801</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="6">
         <v>511076.47169999999</v>
       </c>
-      <c r="I75" s="10">
-        <v>102.89201593308709</v>
-      </c>
-      <c r="J75" s="5">
+      <c r="I75" s="9">
+        <v>113.05489218575623</v>
+      </c>
+      <c r="J75" s="9">
         <v>38.560991999999999</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="11">
         <f t="shared" si="1"/>
         <v>313130679.4368</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="11">
         <v>8120400</v>
       </c>
-      <c r="M75" s="3"/>
-      <c r="N75" s="14">
+      <c r="M75" s="13">
+        <v>1.5897475550336534E-2</v>
+      </c>
+      <c r="N75" s="6">
         <v>114846.77715989249</v>
       </c>
       <c r="O75" s="2">
@@ -3978,7 +4113,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="17">
+      <c r="A76" s="8">
         <v>41883</v>
       </c>
       <c r="B76" s="1">
@@ -3999,24 +4134,26 @@
       <c r="G76" s="2">
         <v>12390.569975448099</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="6">
         <v>517389.7488</v>
       </c>
-      <c r="I76" s="10">
-        <v>103.79518105917872</v>
-      </c>
-      <c r="J76" s="5">
+      <c r="I76" s="9">
+        <v>114.04726496638703</v>
+      </c>
+      <c r="J76" s="9">
         <v>38.251089</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="11">
         <f t="shared" si="1"/>
         <v>309401583.59430003</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="11">
         <v>8088700</v>
       </c>
-      <c r="M76" s="3"/>
-      <c r="N76" s="14">
+      <c r="M76" s="13">
+        <v>8.7777960019657705E-3</v>
+      </c>
+      <c r="N76" s="6">
         <v>113889.74914733994</v>
       </c>
       <c r="O76" s="2">
@@ -4024,7 +4161,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="17">
+      <c r="A77" s="8">
         <v>41974</v>
       </c>
       <c r="B77" s="1">
@@ -4045,24 +4182,26 @@
       <c r="G77" s="2">
         <v>13504.387324617301</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="6">
         <v>523703.0258</v>
       </c>
-      <c r="I77" s="10">
-        <v>105.44456831918905</v>
-      </c>
-      <c r="J77" s="5">
+      <c r="I77" s="9">
+        <v>115.8595659225107</v>
+      </c>
+      <c r="J77" s="9">
         <v>38.916294000000001</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="11">
         <f t="shared" si="1"/>
         <v>321043858.9824</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="11">
         <v>8249600</v>
       </c>
-      <c r="M77" s="3"/>
-      <c r="N77" s="14">
+      <c r="M77" s="13">
+        <v>1.5890788408277925E-2</v>
+      </c>
+      <c r="N77" s="6">
         <v>113843.36971979889</v>
       </c>
       <c r="O77" s="2">
@@ -4070,7 +4209,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="17">
+      <c r="A78" s="8">
         <v>42064</v>
       </c>
       <c r="B78" s="1">
@@ -4091,24 +4230,26 @@
       <c r="G78" s="2">
         <v>13144.829846111201</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78" s="6">
         <v>530016.30290000001</v>
       </c>
-      <c r="I78" s="10">
-        <v>105.71201527345255</v>
-      </c>
-      <c r="J78" s="5">
+      <c r="I78" s="9">
+        <v>116.15342921506523</v>
+      </c>
+      <c r="J78" s="9">
         <v>37.582788000000001</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="11">
         <f t="shared" si="1"/>
         <v>309389027.37360001</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="11">
         <v>8232200</v>
       </c>
-      <c r="M78" s="3"/>
-      <c r="N78" s="14">
+      <c r="M78" s="13">
+        <v>2.5363748794905326E-3</v>
+      </c>
+      <c r="N78" s="6">
         <v>111562.11848730703</v>
       </c>
       <c r="O78" s="2">
@@ -4116,7 +4257,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="17">
+      <c r="A79" s="8">
         <v>42156</v>
       </c>
       <c r="B79" s="1">
@@ -4137,24 +4278,26 @@
       <c r="G79" s="2">
         <v>13688.643378566499</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H79" s="6">
         <v>536054.33750000002</v>
       </c>
-      <c r="I79" s="10">
-        <v>107.18817685181095</v>
-      </c>
-      <c r="J79" s="5">
+      <c r="I79" s="9">
+        <v>117.77539459864363</v>
+      </c>
+      <c r="J79" s="9">
         <v>38.525197666666664</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="11">
         <f t="shared" si="1"/>
         <v>316507613.95026666</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="11">
         <v>8215600</v>
       </c>
-      <c r="M79" s="3"/>
-      <c r="N79" s="14">
+      <c r="M79" s="13">
+        <v>1.3963990512714264E-2</v>
+      </c>
+      <c r="N79" s="6">
         <v>112545.12852430057</v>
       </c>
       <c r="O79" s="2">
@@ -4162,7 +4305,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="17">
+      <c r="A80" s="8">
         <v>42248</v>
       </c>
       <c r="B80" s="1">
@@ -4183,24 +4326,26 @@
       <c r="G80" s="2">
         <v>13479.318563754099</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80" s="6">
         <v>542092.37219999998</v>
       </c>
-      <c r="I80" s="10">
-        <v>108.72414824137552</v>
-      </c>
-      <c r="J80" s="5">
+      <c r="I80" s="9">
+        <v>119.46307734324604</v>
+      </c>
+      <c r="J80" s="9">
         <v>38.117860333333333</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="11">
         <f t="shared" si="1"/>
         <v>316454476.48733336</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80" s="11">
         <v>8302000</v>
       </c>
-      <c r="M80" s="3"/>
-      <c r="N80" s="14">
+      <c r="M80" s="13">
+        <v>1.4329671748107635E-2</v>
+      </c>
+      <c r="N80" s="6">
         <v>112581.16011247951</v>
       </c>
       <c r="O80" s="2">
@@ -4208,7 +4353,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="17">
+      <c r="A81" s="8">
         <v>42339</v>
       </c>
       <c r="B81" s="1">
@@ -4229,24 +4374,26 @@
       <c r="G81" s="2">
         <v>14303.236185932201</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H81" s="6">
         <v>548130.40689999994</v>
       </c>
-      <c r="I81" s="10">
-        <v>109.76899124969435</v>
-      </c>
-      <c r="J81" s="5">
+      <c r="I81" s="9">
+        <v>120.61112184976389</v>
+      </c>
+      <c r="J81" s="9">
         <v>38.716953666666669</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="11">
         <f t="shared" si="1"/>
         <v>326325843.9795</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="11">
         <v>8428500</v>
       </c>
-      <c r="M81" s="3"/>
-      <c r="N81" s="14">
+      <c r="M81" s="13">
+        <v>9.6100362727074388E-3</v>
+      </c>
+      <c r="N81" s="6">
         <v>112352.70313903417</v>
       </c>
       <c r="O81" s="2">
@@ -4254,7 +4401,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="17">
+      <c r="A82" s="8">
         <v>42430</v>
       </c>
       <c r="B82" s="1">
@@ -4275,24 +4422,26 @@
       <c r="G82" s="2">
         <v>13793.343418827601</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H82" s="6">
         <v>554168.44149999996</v>
       </c>
-      <c r="I82" s="10">
-        <v>110.62770558759219</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="I82" s="9">
+        <v>121.55465333769331</v>
+      </c>
+      <c r="J82" s="9">
         <v>37.420206666666665</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="11">
         <f t="shared" si="1"/>
         <v>312855379.8573333</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82" s="11">
         <v>8360600</v>
       </c>
-      <c r="M82" s="3"/>
-      <c r="N82" s="14">
+      <c r="M82" s="13">
+        <v>7.8229227409451103E-3</v>
+      </c>
+      <c r="N82" s="6">
         <v>110619.42827006185</v>
       </c>
       <c r="O82" s="2">
@@ -4300,7 +4449,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="17">
+      <c r="A83" s="8">
         <v>42522</v>
       </c>
       <c r="B83" s="1">
@@ -4321,24 +4470,26 @@
       <c r="G83" s="2">
         <v>13796.8764234548</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83" s="6">
         <v>559785.23270000005</v>
       </c>
-      <c r="I83" s="10">
-        <v>111.70555466186772</v>
-      </c>
-      <c r="J83" s="5">
+      <c r="I83" s="9">
+        <v>122.73896399367251</v>
+      </c>
+      <c r="J83" s="9">
         <v>38.59882533333333</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="11">
         <f t="shared" si="1"/>
         <v>321813846.33413333</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="11">
         <v>8337400</v>
       </c>
-      <c r="M83" s="3"/>
-      <c r="N83" s="14">
+      <c r="M83" s="13">
+        <v>9.7430301799228316E-3</v>
+      </c>
+      <c r="N83" s="6">
         <v>111329.15809599718</v>
       </c>
       <c r="O83" s="2">
@@ -4346,7 +4497,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="17">
+      <c r="A84" s="8">
         <v>42614</v>
       </c>
       <c r="B84" s="1">
@@ -4367,24 +4518,26 @@
       <c r="G84" s="2">
         <v>13473.5828953398</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="6">
         <v>565402.02390000003</v>
       </c>
-      <c r="I84" s="10">
-        <v>112.52256412537855</v>
-      </c>
-      <c r="J84" s="5">
+      <c r="I84" s="9">
+        <v>123.63667132280123</v>
+      </c>
+      <c r="J84" s="9">
         <v>37.951459999999997</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="11">
         <f t="shared" si="1"/>
         <v>317972512.46399999</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L84" s="11">
         <v>8378400</v>
       </c>
-      <c r="M84" s="3"/>
-      <c r="N84" s="14">
+      <c r="M84" s="13">
+        <v>7.3139555681356423E-3</v>
+      </c>
+      <c r="N84" s="6">
         <v>110815.37512827401</v>
       </c>
       <c r="O84" s="2">
@@ -4392,7 +4545,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="17">
+      <c r="A85" s="8">
         <v>42705</v>
       </c>
       <c r="B85" s="1">
@@ -4413,24 +4566,26 @@
       <c r="G85" s="2">
         <v>14509.863384890899</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H85" s="6">
         <v>571018.81510000001</v>
       </c>
-      <c r="I85" s="10">
-        <v>112.87379705416436</v>
-      </c>
-      <c r="J85" s="5">
+      <c r="I85" s="9">
+        <v>124.02259631937034</v>
+      </c>
+      <c r="J85" s="9">
         <v>38.079535666666665</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="11">
         <f t="shared" si="1"/>
         <v>323702708.84163332</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L85" s="11">
         <v>8500700</v>
       </c>
-      <c r="M85" s="3"/>
-      <c r="N85" s="14">
+      <c r="M85" s="13">
+        <v>3.1214444099800774E-3</v>
+      </c>
+      <c r="N85" s="6">
         <v>110105.74896611848</v>
       </c>
       <c r="O85" s="2">
@@ -4438,7 +4593,7 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
+      <c r="A86" s="8">
         <v>42795</v>
       </c>
       <c r="B86" s="1">
@@ -4459,24 +4614,26 @@
       <c r="G86" s="2">
         <v>14203.269948523201</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H86" s="6">
         <v>576635.60620000004</v>
       </c>
-      <c r="I86" s="10">
-        <v>113.6747538649086</v>
-      </c>
-      <c r="J86" s="5">
+      <c r="I86" s="9">
+        <v>124.90266543904843</v>
+      </c>
+      <c r="J86" s="9">
         <v>37.144144333333337</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="11">
         <f t="shared" si="1"/>
         <v>315145778.18173337</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L86" s="11">
         <v>8484400</v>
       </c>
-      <c r="M86" s="3"/>
-      <c r="N86" s="14">
+      <c r="M86" s="13">
+        <v>7.0960385106906909E-3</v>
+      </c>
+      <c r="N86" s="6">
         <v>108994.5621337061</v>
       </c>
       <c r="O86" s="2">
@@ -4484,7 +4641,7 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="17">
+      <c r="A87" s="8">
         <v>42887</v>
       </c>
       <c r="B87" s="1">
@@ -4505,24 +4662,26 @@
       <c r="G87" s="2">
         <v>14787.623708225399</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87" s="6">
         <v>582445.21660000004</v>
       </c>
-      <c r="I87" s="10">
-        <v>114.27589884518194</v>
-      </c>
-      <c r="J87" s="5">
+      <c r="I87" s="9">
+        <v>125.56318686353885</v>
+      </c>
+      <c r="J87" s="9">
         <v>37.622070999999998</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="11">
         <f t="shared" si="1"/>
         <v>320694295.41109997</v>
       </c>
-      <c r="L87" s="3">
+      <c r="L87" s="11">
         <v>8524100</v>
       </c>
-      <c r="M87" s="3"/>
-      <c r="N87" s="14">
+      <c r="M87" s="13">
+        <v>5.288289262431644E-3</v>
+      </c>
+      <c r="N87" s="6">
         <v>109141.33109446712</v>
       </c>
       <c r="O87" s="2">
@@ -4530,7 +4689,7 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
+      <c r="A88" s="8">
         <v>42979</v>
       </c>
       <c r="B88" s="1">
@@ -4551,24 +4710,26 @@
       <c r="G88" s="2">
         <v>14723.0621864768</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H88" s="6">
         <v>588254.82700000005</v>
       </c>
-      <c r="I88" s="10">
-        <v>114.39811744480619</v>
-      </c>
-      <c r="J88" s="5">
+      <c r="I88" s="9">
+        <v>125.69747726963409</v>
+      </c>
+      <c r="J88" s="9">
         <v>37.839815666666674</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="11">
         <f t="shared" si="1"/>
         <v>325918116.31856674</v>
       </c>
-      <c r="L88" s="3">
+      <c r="L88" s="11">
         <v>8613100</v>
       </c>
-      <c r="M88" s="3"/>
-      <c r="N88" s="14">
+      <c r="M88" s="13">
+        <v>1.0695046012267288E-3</v>
+      </c>
+      <c r="N88" s="6">
         <v>119739.77603401353</v>
       </c>
       <c r="O88" s="2">
@@ -4576,7 +4737,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="17">
+      <c r="A89" s="8">
         <v>43070</v>
       </c>
       <c r="B89" s="1">
@@ -4597,24 +4758,26 @@
       <c r="G89" s="2">
         <v>15652.5176813541</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89" s="6">
         <v>594064.43729999999</v>
       </c>
-      <c r="I89" s="10">
-        <v>115.15282578619977</v>
-      </c>
-      <c r="J89" s="5">
+      <c r="I89" s="9">
+        <v>126.52672985443553</v>
+      </c>
+      <c r="J89" s="9">
         <v>37.644797000000004</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="11">
         <f t="shared" si="1"/>
         <v>330095931.45390004</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="11">
         <v>8768700</v>
       </c>
-      <c r="M89" s="3"/>
-      <c r="N89" s="14">
+      <c r="M89" s="13">
+        <v>6.5972094493400631E-3</v>
+      </c>
+      <c r="N89" s="6">
         <v>119121.26743213921</v>
       </c>
       <c r="O89" s="2">
@@ -4622,7 +4785,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="17">
+      <c r="A90" s="8">
         <v>43160</v>
       </c>
       <c r="B90" s="1">
@@ -4643,24 +4806,26 @@
       <c r="G90" s="2">
         <v>15655.7508808331</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H90" s="6">
         <v>599874.0477</v>
       </c>
-      <c r="I90" s="10">
-        <v>115.94388658130769</v>
-      </c>
-      <c r="J90" s="5">
+      <c r="I90" s="9">
+        <v>127.39592550671495</v>
+      </c>
+      <c r="J90" s="9">
         <v>36.815596666666664</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="11">
         <f t="shared" si="1"/>
         <v>322471492.76299995</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90" s="11">
         <v>8759100</v>
       </c>
-      <c r="M90" s="3"/>
-      <c r="N90" s="14">
+      <c r="M90" s="13">
+        <v>6.8696602945432497E-3</v>
+      </c>
+      <c r="N90" s="6">
         <v>118293.90578655231</v>
       </c>
       <c r="O90" s="2">
@@ -4668,7 +4833,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="17">
+      <c r="A91" s="8">
         <v>43252</v>
       </c>
       <c r="B91" s="1">
@@ -4689,24 +4854,26 @@
       <c r="G91" s="2">
         <v>16154.328880768</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H91" s="6">
         <v>605613.17249999999</v>
       </c>
-      <c r="I91" s="10">
-        <v>116.74317047799279</v>
-      </c>
-      <c r="J91" s="5">
+      <c r="I91" s="9">
+        <v>128.27415647484284</v>
+      </c>
+      <c r="J91" s="9">
         <v>37.992781666666666</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="11">
         <f t="shared" si="1"/>
         <v>332645799.88249999</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="11">
         <v>8755500</v>
       </c>
-      <c r="M91" s="3"/>
-      <c r="N91" s="14">
+      <c r="M91" s="13">
+        <v>6.8937131594652423E-3</v>
+      </c>
+      <c r="N91" s="6">
         <v>118560.71687779261</v>
       </c>
       <c r="O91" s="2">
@@ -4714,7 +4881,7 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
+      <c r="A92" s="8">
         <v>43344</v>
       </c>
       <c r="B92" s="1">
@@ -4735,24 +4902,26 @@
       <c r="G92" s="2">
         <v>16139.0682520968</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H92" s="6">
         <v>611352.29740000004</v>
       </c>
-      <c r="I92" s="10">
-        <v>117.61419145409668</v>
-      </c>
-      <c r="J92" s="5">
+      <c r="I92" s="9">
+        <v>129.23121015536356</v>
+      </c>
+      <c r="J92" s="9">
         <v>36.832033000000003</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="11">
         <f t="shared" si="1"/>
         <v>320840156.2597</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92" s="11">
         <v>8710900</v>
       </c>
-      <c r="M92" s="3"/>
-      <c r="N92" s="14">
+      <c r="M92" s="13">
+        <v>7.4610015518473752E-3</v>
+      </c>
+      <c r="N92" s="6">
         <v>118345.11228012583</v>
       </c>
       <c r="O92" s="2">
@@ -4760,7 +4929,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="17">
+      <c r="A93" s="8">
         <v>43435</v>
       </c>
       <c r="B93" s="1">
@@ -4781,24 +4950,26 @@
       <c r="G93" s="2">
         <v>16729.4153208194</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H93" s="6">
         <v>617091.42220000003</v>
       </c>
-      <c r="I93" s="10">
-        <v>118.33600068100175</v>
-      </c>
-      <c r="J93" s="5">
+      <c r="I93" s="9">
+        <v>130.02431410600929</v>
+      </c>
+      <c r="J93" s="9">
         <v>37.324316000000003</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="11">
         <f t="shared" si="1"/>
         <v>332716417.68720001</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93" s="11">
         <v>8914200</v>
       </c>
-      <c r="M93" s="3"/>
-      <c r="N93" s="14">
+      <c r="M93" s="13">
+        <v>6.1370929645574706E-3</v>
+      </c>
+      <c r="N93" s="6">
         <v>117740.93594094191</v>
       </c>
       <c r="O93" s="2">
@@ -4806,7 +4977,7 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
+      <c r="A94" s="8">
         <v>43525</v>
       </c>
       <c r="B94" s="1">
@@ -4827,24 +4998,26 @@
       <c r="G94" s="2">
         <v>16530.480437950599</v>
       </c>
-      <c r="H94" s="13">
+      <c r="H94" s="6">
         <v>622830.54709999997</v>
       </c>
-      <c r="I94" s="11">
-        <v>99.929823416666991</v>
-      </c>
-      <c r="J94" s="5">
+      <c r="I94" s="9">
+        <v>129.94174979755198</v>
+      </c>
+      <c r="J94" s="9">
         <v>37.118829000000005</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="11">
         <f t="shared" si="1"/>
         <v>329581794.57390004</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="11">
         <v>8879100</v>
       </c>
-      <c r="M94" s="3"/>
-      <c r="N94" s="14">
+      <c r="M94" s="13">
+        <v>-6.349913016268047E-4</v>
+      </c>
+      <c r="N94" s="6">
         <v>116031.27885736986</v>
       </c>
       <c r="O94" s="2">
@@ -4852,7 +5025,7 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="17">
+      <c r="A95" s="8">
         <v>43617</v>
       </c>
       <c r="B95" s="1">
@@ -4873,24 +5046,26 @@
       <c r="G95" s="2">
         <v>17122.581606704101</v>
       </c>
-      <c r="H95" s="13">
+      <c r="H95" s="6">
         <v>627519.98800000001</v>
       </c>
-      <c r="I95" s="11">
-        <v>100.946249083333</v>
-      </c>
-      <c r="J95" s="5">
+      <c r="I95" s="9">
+        <v>131.25481285276797</v>
+      </c>
+      <c r="J95" s="9">
         <v>44.8</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="11">
         <f t="shared" si="1"/>
         <v>399732480</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95" s="11">
         <v>8922600</v>
       </c>
-      <c r="M95" s="3"/>
-      <c r="N95" s="14">
+      <c r="M95" s="13">
+        <v>1.0105012878937919E-2</v>
+      </c>
+      <c r="N95" s="6">
         <v>115841.45943472644</v>
       </c>
       <c r="O95" s="2">
@@ -4898,7 +5073,7 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="17">
+      <c r="A96" s="8">
         <v>43709</v>
       </c>
       <c r="B96" s="1">
@@ -4919,24 +5094,26 @@
       <c r="G96" s="2">
         <v>17762.673812987501</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H96" s="6">
         <v>632209.42890000006</v>
       </c>
-      <c r="I96" s="11">
-        <v>101.53696400000001</v>
-      </c>
-      <c r="J96" s="5">
+      <c r="I96" s="9">
+        <v>132.02720288524799</v>
+      </c>
+      <c r="J96" s="9">
         <v>44.8</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="11">
         <f t="shared" si="1"/>
         <v>403204480</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96" s="11">
         <v>9000100</v>
       </c>
-      <c r="M96" s="3"/>
-      <c r="N96" s="14">
+      <c r="M96" s="13">
+        <v>5.8846606512359201E-3</v>
+      </c>
+      <c r="N96" s="6">
         <v>115617.63511128772</v>
       </c>
       <c r="O96" s="2">
@@ -4944,7 +5121,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
+      <c r="A97" s="8">
         <v>43800</v>
       </c>
       <c r="B97" s="1">
@@ -4965,29 +5142,41 @@
       <c r="G97" s="2">
         <v>19469.591728230102</v>
       </c>
-      <c r="H97" s="13">
+      <c r="H97" s="6">
         <v>641588.31079999998</v>
       </c>
-      <c r="I97" s="11">
-        <v>102.526989</v>
-      </c>
-      <c r="J97" s="4">
+      <c r="I97" s="9">
+        <v>133.31451960604798</v>
+      </c>
+      <c r="J97" s="10">
         <v>44.8</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="11">
         <f t="shared" si="1"/>
         <v>407102080</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97" s="11">
         <v>9087100</v>
       </c>
-      <c r="M97" s="3"/>
-      <c r="N97" s="14">
+      <c r="M97" s="13">
+        <v>9.7503900156005689E-3</v>
+      </c>
+      <c r="N97" s="6">
         <v>115951.58672888437</v>
       </c>
       <c r="O97" s="2">
         <v>12417.694760372</v>
       </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H98" s="6"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Base de datos T2 macro log.xlsx
+++ b/Base de datos T2 macro log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003BEAA0-74EE-4A56-A520-A1AE577BD01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E160E77-F94C-4EB6-925A-BDCFB4023BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C03619A9-834F-4759-91C4-4EDF79D9A3D7}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -177,11 +177,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -504,7 +503,7 @@
   <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,14 +590,14 @@
       <c r="J2" s="10">
         <v>46.8</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2">
         <f>J2*L2</f>
         <v>243280440</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2">
         <v>5198300</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <v>0</v>
       </c>
       <c r="N2" s="6">
@@ -639,14 +638,14 @@
       <c r="J3" s="10">
         <v>46.8</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3">
         <f t="shared" ref="K3:K66" si="0">J3*L3</f>
         <v>240622200</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3">
         <v>5141500</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>2.367740378950554E-2</v>
       </c>
       <c r="N3" s="6">
@@ -687,14 +686,14 @@
       <c r="J4" s="10">
         <v>46.8</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>238202640</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4">
         <v>5089800</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>1.2935121595624609E-2</v>
       </c>
       <c r="N4" s="6">
@@ -735,14 +734,14 @@
       <c r="J5" s="10">
         <v>46.8</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>247979159.99999997</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5">
         <v>5298700</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>1.5756808380544808E-2</v>
       </c>
       <c r="N5" s="6">
@@ -783,14 +782,14 @@
       <c r="J6" s="10">
         <v>46.3</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>243158339.99999997</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6">
         <v>5251800</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <v>1.5475093356629747E-2</v>
       </c>
       <c r="N6" s="6">
@@ -831,14 +830,14 @@
       <c r="J7" s="10">
         <v>46.3</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>240523870</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7">
         <v>5194900</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>1.0538961107089798E-2</v>
       </c>
       <c r="N7" s="6">
@@ -879,14 +878,14 @@
       <c r="J8" s="10">
         <v>46.3</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>245302029.99999997</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8">
         <v>5298100</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>1.4265320424637211E-2</v>
       </c>
       <c r="N8" s="6">
@@ -927,14 +926,14 @@
       <c r="J9" s="10">
         <v>46.3</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>249103259.99999997</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9">
         <v>5380200</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>2.1265923852126403E-2</v>
       </c>
       <c r="N9" s="6">
@@ -975,14 +974,14 @@
       <c r="J10" s="10">
         <v>46.6</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>250950320</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10">
         <v>5385200</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>8.8053403361755198E-3</v>
       </c>
       <c r="N10" s="6">
@@ -1023,14 +1022,14 @@
       <c r="J11" s="10">
         <v>46.6</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>249393880</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11">
         <v>5351800</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>8.5198340743689802E-3</v>
       </c>
       <c r="N11" s="6">
@@ -1071,14 +1070,14 @@
       <c r="J12" s="10">
         <v>46.6</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>250297920</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12">
         <v>5371200</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="12">
         <v>1.1201418649327553E-2</v>
       </c>
       <c r="N12" s="6">
@@ -1119,14 +1118,14 @@
       <c r="J13" s="10">
         <v>44.09</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>241057666.00000003</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13">
         <v>5467400</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>1.4984119561192897E-2</v>
       </c>
       <c r="N13" s="6">
@@ -1167,14 +1166,14 @@
       <c r="J14" s="9">
         <v>43.98</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>235860341.99999997</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14">
         <v>5362900</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <v>2.9708197350747289E-3</v>
       </c>
       <c r="N14" s="6">
@@ -1215,14 +1214,14 @@
       <c r="J15" s="9">
         <v>44.410000000000004</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>230634453.00000003</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15">
         <v>5193300</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>9.5081323960777061E-3</v>
       </c>
       <c r="N15" s="6">
@@ -1263,14 +1262,14 @@
       <c r="J16" s="9">
         <v>43.870000000000005</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16">
         <f t="shared" si="0"/>
         <v>229128623.00000003</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16">
         <v>5222900</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="12">
         <v>4.0954466596512711E-3</v>
       </c>
       <c r="N16" s="6">
@@ -1311,14 +1310,14 @@
       <c r="J17" s="9">
         <v>43.77</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17">
         <f t="shared" si="0"/>
         <v>239982156.00000003</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17">
         <v>5482800</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="12">
         <v>7.7326157768022449E-3</v>
       </c>
       <c r="N17" s="6">
@@ -1359,14 +1358,14 @@
       <c r="J18" s="9">
         <v>43.426666666666669</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18">
         <f t="shared" si="0"/>
         <v>237413586.66666669</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18">
         <v>5467000</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>1.0254464369367135E-2</v>
       </c>
       <c r="N18" s="6">
@@ -1407,14 +1406,14 @@
       <c r="J19" s="9">
         <v>44.086666666666666</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>236970242</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19">
         <v>5375100</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <v>1.3739410267229149E-2</v>
       </c>
       <c r="N19" s="6">
@@ -1455,14 +1454,14 @@
       <c r="J20" s="9">
         <v>43.343333333333334</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>230270127</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20">
         <v>5312700</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="12">
         <v>7.3323575153242141E-3</v>
       </c>
       <c r="N20" s="6">
@@ -1503,14 +1502,14 @@
       <c r="J21" s="9">
         <v>43.819999999999993</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21">
         <f t="shared" si="0"/>
         <v>241075729.99999997</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21">
         <v>5501500</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="12">
         <v>1.3645259577790607E-2</v>
       </c>
       <c r="N21" s="6">
@@ -1551,14 +1550,14 @@
       <c r="J22" s="9">
         <v>43.73</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22">
         <f t="shared" si="0"/>
         <v>236295054.99999997</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22">
         <v>5403500</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="12">
         <v>4.7798663250135359E-3</v>
       </c>
       <c r="N22" s="6">
@@ -1599,14 +1598,14 @@
       <c r="J23" s="9">
         <v>44.233333333333327</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23">
         <f t="shared" si="0"/>
         <v>238479593.33333331</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23">
         <v>5391400</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="12">
         <v>9.8174279408813573E-3</v>
       </c>
       <c r="N23" s="6">
@@ -1647,14 +1646,14 @@
       <c r="J24" s="9">
         <v>42.70000000000001</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24">
         <f t="shared" si="0"/>
         <v>232108660.00000006</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24">
         <v>5435800</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="12">
         <v>7.6954661651148105E-3</v>
       </c>
       <c r="N24" s="6">
@@ -1695,14 +1694,14 @@
       <c r="J25" s="9">
         <v>43.359999999999992</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25">
         <f t="shared" si="0"/>
         <v>244619775.99999997</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25">
         <v>5641600</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M25" s="12">
         <v>7.8119523308792837E-3</v>
       </c>
       <c r="N25" s="6">
@@ -1743,14 +1742,14 @@
       <c r="J26" s="9">
         <v>43.29</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26">
         <f t="shared" si="0"/>
         <v>240900192</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26">
         <v>5564800</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="12">
         <v>-1.0825004456075931E-3</v>
       </c>
       <c r="N26" s="6">
@@ -1791,14 +1790,14 @@
       <c r="J27" s="9">
         <v>43.893333333333338</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27">
         <f t="shared" si="0"/>
         <v>240838330.66666669</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27">
         <v>5486900</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="12">
         <v>7.4638557887319879E-3</v>
       </c>
       <c r="N27" s="6">
@@ -1839,14 +1838,14 @@
       <c r="J28" s="9">
         <v>43.646666666666668</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28">
         <f t="shared" si="0"/>
         <v>239834068.66666669</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28">
         <v>5494900</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="12">
         <v>9.2444997386481841E-3</v>
       </c>
       <c r="N28" s="6">
@@ -1887,14 +1886,14 @@
       <c r="J29" s="9">
         <v>43.536666666666669</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>249700198</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29">
         <v>5735400</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="12">
         <v>1.354283928793118E-2</v>
       </c>
       <c r="N29" s="6">
@@ -1935,14 +1934,14 @@
       <c r="J30" s="9">
         <v>42.9</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30">
         <f t="shared" si="0"/>
         <v>248094990</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30">
         <v>5783100</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="12">
         <v>7.0103423665391169E-3</v>
       </c>
       <c r="N30" s="6">
@@ -1983,14 +1982,14 @@
       <c r="J31" s="9">
         <v>43.52</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31">
         <f t="shared" si="0"/>
         <v>250100736.00000003</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31">
         <v>5746800</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="12">
         <v>6.8944404138341986E-3</v>
       </c>
       <c r="N31" s="6">
@@ -2031,14 +2030,14 @@
       <c r="J32" s="9">
         <v>43.353333333333332</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32">
         <f t="shared" si="0"/>
         <v>246580754</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32">
         <v>5687700</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="12">
         <v>-4.0400338196601692E-4</v>
       </c>
       <c r="N32" s="6">
@@ -2079,14 +2078,14 @@
       <c r="J33" s="9">
         <v>43.49</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33">
         <f t="shared" si="0"/>
         <v>258174036</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33">
         <v>5936400</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="12">
         <v>-2.8458333333338361E-3</v>
       </c>
       <c r="N33" s="6">
@@ -2127,14 +2126,14 @@
       <c r="J34" s="9">
         <v>42.766666666666673</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34">
         <f t="shared" si="0"/>
         <v>252827980.00000003</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34">
         <v>5911800</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="12">
         <v>-3.551774424716451E-3</v>
       </c>
       <c r="N34" s="6">
@@ -2175,14 +2174,14 @@
       <c r="J35" s="9">
         <v>43.463333333333338</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35">
         <f t="shared" si="0"/>
         <v>253582472.00000003</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35">
         <v>5834400</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="12">
         <v>1.1485865968876154E-2</v>
       </c>
       <c r="N35" s="6">
@@ -2223,14 +2222,14 @@
       <c r="J36" s="9">
         <v>42.946666666666665</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36">
         <f t="shared" si="0"/>
         <v>251362545.33333331</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36">
         <v>5852900</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="12">
         <v>9.6846678772504989E-3</v>
       </c>
       <c r="N36" s="6">
@@ -2271,14 +2270,14 @@
       <c r="J37" s="9">
         <v>42.993333333333332</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37">
         <f t="shared" si="0"/>
         <v>265986855.33333331</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37">
         <v>6186700</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="12">
         <v>4.9806604199681944E-3</v>
       </c>
       <c r="N37" s="6">
@@ -2319,14 +2318,14 @@
       <c r="J38" s="9">
         <v>41.63</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38">
         <f t="shared" si="0"/>
         <v>256503245.00000003</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38">
         <v>6161500</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M38" s="12">
         <v>-3.3380319094599882E-3</v>
       </c>
       <c r="N38" s="6">
@@ -2367,14 +2366,14 @@
       <c r="J39" s="9">
         <v>41.860000000000007</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39">
         <f t="shared" si="0"/>
         <v>256141340.00000003</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39">
         <v>6119000</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="12">
         <v>1.6147545687838737E-2</v>
       </c>
       <c r="N39" s="6">
@@ -2415,14 +2414,14 @@
       <c r="J40" s="9">
         <v>41.216666666666669</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40">
         <f t="shared" si="0"/>
         <v>252542760</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40">
         <v>6127200</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="12">
         <v>1.5132505234450569E-2</v>
       </c>
       <c r="N40" s="6">
@@ -2463,14 +2462,14 @@
       <c r="J41" s="9">
         <v>41.803333333333335</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41">
         <f t="shared" si="0"/>
         <v>262257392</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41">
         <v>6273600</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M41" s="12">
         <v>9.7246729298810231E-3</v>
       </c>
       <c r="N41" s="6">
@@ -2511,14 +2510,14 @@
       <c r="J42" s="9">
         <v>41.086666666666666</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42">
         <f t="shared" si="0"/>
         <v>258011940.66666666</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42">
         <v>6279700</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M42" s="12">
         <v>-8.7769359441187771E-4</v>
       </c>
       <c r="N42" s="6">
@@ -2559,14 +2558,14 @@
       <c r="J43" s="9">
         <v>42.103333333333332</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43">
         <f t="shared" si="0"/>
         <v>260404906.33333331</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43">
         <v>6184900</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="12">
         <v>1.364180703717203E-2</v>
       </c>
       <c r="N43" s="6">
@@ -2607,14 +2606,14 @@
       <c r="J44" s="9">
         <v>41.68</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44">
         <f t="shared" si="0"/>
         <v>258907824</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44">
         <v>6211800</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="12">
         <v>1.2000854983191393E-2</v>
       </c>
       <c r="N44" s="6">
@@ -2655,14 +2654,14 @@
       <c r="J45" s="9">
         <v>41.776666666666664</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45">
         <f t="shared" si="0"/>
         <v>267830209.99999997</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45">
         <v>6411000</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M45" s="12">
         <v>-2.3770847494073207E-3</v>
       </c>
       <c r="N45" s="6">
@@ -2703,14 +2702,14 @@
       <c r="J46" s="9">
         <v>40.75</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46">
         <f t="shared" si="0"/>
         <v>263200175</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46">
         <v>6458900</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M46" s="12">
         <v>3.4374711298609667E-3</v>
       </c>
       <c r="N46" s="6">
@@ -2751,14 +2750,14 @@
       <c r="J47" s="9">
         <v>41.513333333333328</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47">
         <f t="shared" si="0"/>
         <v>265589852.66666663</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47">
         <v>6397700</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M47" s="12">
         <v>1.5371513405479164E-2</v>
       </c>
       <c r="N47" s="6">
@@ -2799,14 +2798,14 @@
       <c r="J48" s="9">
         <v>40.669999999999995</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48">
         <f t="shared" si="0"/>
         <v>259132971.99999997</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48">
         <v>6371600</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="12">
         <v>3.0923667467621509E-2</v>
       </c>
       <c r="N48" s="6">
@@ -2847,14 +2846,14 @@
       <c r="J49" s="9">
         <v>40.910000000000004</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49">
         <f t="shared" si="0"/>
         <v>268664152</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49">
         <v>6567200</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M49" s="12">
         <v>2.0944116041030698E-2</v>
       </c>
       <c r="N49" s="6">
@@ -2895,14 +2894,14 @@
       <c r="J50" s="9">
         <v>40.023333333333333</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50">
         <f t="shared" si="0"/>
         <v>265666882</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50">
         <v>6637800</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M50" s="12">
         <v>1.0689773999942856E-2</v>
       </c>
       <c r="N50" s="6">
@@ -2943,14 +2942,14 @@
       <c r="J51" s="9">
         <v>40.97</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51">
         <f t="shared" si="0"/>
         <v>269709607</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51">
         <v>6583100</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M51" s="12">
         <v>2.3593382629757926E-2</v>
       </c>
       <c r="N51" s="6">
@@ -2991,14 +2990,14 @@
       <c r="J52" s="9">
         <v>40.403333333333336</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52">
         <f t="shared" si="0"/>
         <v>266835734.33333334</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52">
         <v>6604300</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M52" s="12">
         <v>3.5190229177148556E-2</v>
       </c>
       <c r="N52" s="6">
@@ -3039,14 +3038,14 @@
       <c r="J53" s="9">
         <v>40.276666666666664</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K53">
         <f t="shared" si="0"/>
         <v>271480844</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53">
         <v>6740400</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M53" s="12">
         <v>1.4114437215728737E-2</v>
       </c>
       <c r="N53" s="6">
@@ -3087,14 +3086,14 @@
       <c r="J54" s="9">
         <v>39.44</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54">
         <f t="shared" si="0"/>
         <v>260599799.99999997</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54">
         <v>6607500</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M54" s="12">
         <v>-1.7114073995732778E-2</v>
       </c>
       <c r="N54" s="6">
@@ -3135,14 +3134,14 @@
       <c r="J55" s="9">
         <v>40.06</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55">
         <f t="shared" si="0"/>
         <v>260962858</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55">
         <v>6514300</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M55" s="12">
         <v>-7.0616719348974197E-4</v>
       </c>
       <c r="N55" s="6">
@@ -3183,14 +3182,14 @@
       <c r="J56" s="9">
         <v>39.75</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56">
         <f t="shared" si="0"/>
         <v>259806000</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56">
         <v>6536000</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M56" s="12">
         <v>-2.0526971093993754E-3</v>
       </c>
       <c r="N56" s="6">
@@ -3231,14 +3230,14 @@
       <c r="J57" s="9">
         <v>40.309999999999995</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57">
         <f t="shared" si="0"/>
         <v>270520409.99999994</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57">
         <v>6711000</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M57" s="12">
         <v>1.2139196115457708E-3</v>
       </c>
       <c r="N57" s="6">
@@ -3279,14 +3278,14 @@
       <c r="J58" s="9">
         <v>39.68333333333333</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58">
         <f t="shared" si="0"/>
         <v>283981870</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58">
         <v>7156200</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M58" s="12">
         <v>2.7058325483047038E-3</v>
       </c>
       <c r="N58" s="6">
@@ -3327,14 +3326,14 @@
       <c r="J59" s="9">
         <v>40.903333333333336</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59">
         <f t="shared" si="0"/>
         <v>295387512</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59">
         <v>7221600</v>
       </c>
-      <c r="M59" s="13">
+      <c r="M59" s="12">
         <v>8.5367463376204589E-3</v>
       </c>
       <c r="N59" s="6">
@@ -3375,14 +3374,14 @@
       <c r="J60" s="9">
         <v>39.546666666666667</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60">
         <f t="shared" si="0"/>
         <v>292230093.33333331</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60">
         <v>7389500</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="12">
         <v>8.311800027139174E-3</v>
       </c>
       <c r="N60" s="6">
@@ -3423,14 +3422,14 @@
       <c r="J61" s="9">
         <v>39.826666666666661</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61">
         <f t="shared" si="0"/>
         <v>301579467.99999994</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61">
         <v>7572300</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M61" s="12">
         <v>4.1805402907192585E-3</v>
       </c>
       <c r="N61" s="6">
@@ -3471,14 +3470,14 @@
       <c r="J62" s="9">
         <v>39.369999999999997</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62">
         <f t="shared" si="0"/>
         <v>300152943</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62">
         <v>7623900</v>
       </c>
-      <c r="M62" s="13">
+      <c r="M62" s="12">
         <v>7.837104819285446E-3</v>
       </c>
       <c r="N62" s="6">
@@ -3519,14 +3518,14 @@
       <c r="J63" s="9">
         <v>39.716666666666661</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63">
         <f t="shared" si="0"/>
         <v>305758758.33333331</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L63">
         <v>7698500</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="12">
         <v>1.2326001411233529E-2</v>
       </c>
       <c r="N63" s="6">
@@ -3567,14 +3566,14 @@
       <c r="J64" s="9">
         <v>39.51</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64">
         <f t="shared" si="0"/>
         <v>303768684</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64">
         <v>7688400</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M64" s="12">
         <v>6.479133737665419E-3</v>
       </c>
       <c r="N64" s="6">
@@ -3615,14 +3614,14 @@
       <c r="J65" s="9">
         <v>39.553333333333335</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65">
         <f t="shared" si="0"/>
         <v>307997851.33333331</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65">
         <v>7786900</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="12">
         <v>1.2913224330463503E-2</v>
       </c>
       <c r="N65" s="6">
@@ -3663,14 +3662,14 @@
       <c r="J66" s="9">
         <v>39.100046666666664</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66">
         <f t="shared" si="0"/>
         <v>306732046.09066665</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66">
         <v>7844800</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="12">
         <v>9.1467609089367959E-3</v>
       </c>
       <c r="N66" s="6">
@@ -3711,14 +3710,14 @@
       <c r="J67" s="9">
         <v>39.376711333333333</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67">
         <f t="shared" ref="K67:K97" si="1">J67*L67</f>
         <v>307906194.27099997</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67">
         <v>7819500</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M67" s="12">
         <v>2.1041683393132416E-3</v>
       </c>
       <c r="N67" s="6">
@@ -3759,14 +3758,14 @@
       <c r="J68" s="9">
         <v>38.506930666666669</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68">
         <f t="shared" si="1"/>
         <v>303207422.76240003</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68">
         <v>7874100</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M68" s="12">
         <v>2.0265647555573639E-3</v>
       </c>
       <c r="N68" s="6">
@@ -3807,14 +3806,14 @@
       <c r="J69" s="9">
         <v>38.799151333333334</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69">
         <f t="shared" si="1"/>
         <v>308542491.1480667</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L69">
         <v>7952300</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M69" s="12">
         <v>8.3393354112087301E-3</v>
       </c>
       <c r="N69" s="6">
@@ -3855,14 +3854,14 @@
       <c r="J70" s="9">
         <v>38.413157333333338</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70">
         <f t="shared" si="1"/>
         <v>306948016.30346668</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L70">
         <v>7990700</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M70" s="12">
         <v>2.1579889178890777E-3</v>
       </c>
       <c r="N70" s="6">
@@ -3903,14 +3902,14 @@
       <c r="J71" s="9">
         <v>39.626432000000001</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71">
         <f t="shared" si="1"/>
         <v>317177887.01440001</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L71">
         <v>8004200</v>
       </c>
-      <c r="M71" s="13">
+      <c r="M71" s="12">
         <v>1.6925532860086686E-4</v>
       </c>
       <c r="N71" s="6">
@@ -3951,14 +3950,14 @@
       <c r="J72" s="9">
         <v>38.552905000000003</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72">
         <f t="shared" si="1"/>
         <v>308839611.37400001</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72">
         <v>8010800</v>
       </c>
-      <c r="M72" s="13">
+      <c r="M72" s="12">
         <v>1.0268116424117802E-2</v>
       </c>
       <c r="N72" s="6">
@@ -3999,14 +3998,14 @@
       <c r="J73" s="9">
         <v>38.802265666666663</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K73">
         <f t="shared" si="1"/>
         <v>316215183.8239333</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L73">
         <v>8149400</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M73" s="12">
         <v>1.0319734529131513E-2</v>
       </c>
       <c r="N73" s="6">
@@ -4047,14 +4046,14 @@
       <c r="J74" s="9">
         <v>37.797109666666664</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74">
         <f t="shared" si="1"/>
         <v>308280785.86326665</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L74">
         <v>8156200</v>
       </c>
-      <c r="M74" s="13">
+      <c r="M74" s="12">
         <v>9.9579477416836815E-3</v>
       </c>
       <c r="N74" s="6">
@@ -4095,14 +4094,14 @@
       <c r="J75" s="9">
         <v>38.560991999999999</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75">
         <f t="shared" si="1"/>
         <v>313130679.4368</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L75">
         <v>8120400</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M75" s="12">
         <v>1.5897475550336534E-2</v>
       </c>
       <c r="N75" s="6">
@@ -4143,14 +4142,14 @@
       <c r="J76" s="9">
         <v>38.251089</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76">
         <f t="shared" si="1"/>
         <v>309401583.59430003</v>
       </c>
-      <c r="L76" s="11">
+      <c r="L76">
         <v>8088700</v>
       </c>
-      <c r="M76" s="13">
+      <c r="M76" s="12">
         <v>8.7777960019657705E-3</v>
       </c>
       <c r="N76" s="6">
@@ -4191,14 +4190,14 @@
       <c r="J77" s="9">
         <v>38.916294000000001</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77">
         <f t="shared" si="1"/>
         <v>321043858.9824</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L77">
         <v>8249600</v>
       </c>
-      <c r="M77" s="13">
+      <c r="M77" s="12">
         <v>1.5890788408277925E-2</v>
       </c>
       <c r="N77" s="6">
@@ -4239,14 +4238,14 @@
       <c r="J78" s="9">
         <v>37.582788000000001</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78">
         <f t="shared" si="1"/>
         <v>309389027.37360001</v>
       </c>
-      <c r="L78" s="11">
+      <c r="L78">
         <v>8232200</v>
       </c>
-      <c r="M78" s="13">
+      <c r="M78" s="12">
         <v>2.5363748794905326E-3</v>
       </c>
       <c r="N78" s="6">
@@ -4287,14 +4286,14 @@
       <c r="J79" s="9">
         <v>38.525197666666664</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K79">
         <f t="shared" si="1"/>
         <v>316507613.95026666</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L79">
         <v>8215600</v>
       </c>
-      <c r="M79" s="13">
+      <c r="M79" s="12">
         <v>1.3963990512714264E-2</v>
       </c>
       <c r="N79" s="6">
@@ -4335,14 +4334,14 @@
       <c r="J80" s="9">
         <v>38.117860333333333</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80">
         <f t="shared" si="1"/>
         <v>316454476.48733336</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L80">
         <v>8302000</v>
       </c>
-      <c r="M80" s="13">
+      <c r="M80" s="12">
         <v>1.4329671748107635E-2</v>
       </c>
       <c r="N80" s="6">
@@ -4383,14 +4382,14 @@
       <c r="J81" s="9">
         <v>38.716953666666669</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K81">
         <f t="shared" si="1"/>
         <v>326325843.9795</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L81">
         <v>8428500</v>
       </c>
-      <c r="M81" s="13">
+      <c r="M81" s="12">
         <v>9.6100362727074388E-3</v>
       </c>
       <c r="N81" s="6">
@@ -4431,14 +4430,14 @@
       <c r="J82" s="9">
         <v>37.420206666666665</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82">
         <f t="shared" si="1"/>
         <v>312855379.8573333</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L82">
         <v>8360600</v>
       </c>
-      <c r="M82" s="13">
+      <c r="M82" s="12">
         <v>7.8229227409451103E-3</v>
       </c>
       <c r="N82" s="6">
@@ -4479,14 +4478,14 @@
       <c r="J83" s="9">
         <v>38.59882533333333</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K83">
         <f t="shared" si="1"/>
         <v>321813846.33413333</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L83">
         <v>8337400</v>
       </c>
-      <c r="M83" s="13">
+      <c r="M83" s="12">
         <v>9.7430301799228316E-3</v>
       </c>
       <c r="N83" s="6">
@@ -4527,14 +4526,14 @@
       <c r="J84" s="9">
         <v>37.951459999999997</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84">
         <f t="shared" si="1"/>
         <v>317972512.46399999</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L84">
         <v>8378400</v>
       </c>
-      <c r="M84" s="13">
+      <c r="M84" s="12">
         <v>7.3139555681356423E-3</v>
       </c>
       <c r="N84" s="6">
@@ -4575,14 +4574,14 @@
       <c r="J85" s="9">
         <v>38.079535666666665</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K85">
         <f t="shared" si="1"/>
         <v>323702708.84163332</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L85">
         <v>8500700</v>
       </c>
-      <c r="M85" s="13">
+      <c r="M85" s="12">
         <v>3.1214444099800774E-3</v>
       </c>
       <c r="N85" s="6">
@@ -4623,14 +4622,14 @@
       <c r="J86" s="9">
         <v>37.144144333333337</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86">
         <f t="shared" si="1"/>
         <v>315145778.18173337</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L86">
         <v>8484400</v>
       </c>
-      <c r="M86" s="13">
+      <c r="M86" s="12">
         <v>7.0960385106906909E-3</v>
       </c>
       <c r="N86" s="6">
@@ -4671,14 +4670,14 @@
       <c r="J87" s="9">
         <v>37.622070999999998</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K87">
         <f t="shared" si="1"/>
         <v>320694295.41109997</v>
       </c>
-      <c r="L87" s="11">
+      <c r="L87">
         <v>8524100</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M87" s="12">
         <v>5.288289262431644E-3</v>
       </c>
       <c r="N87" s="6">
@@ -4719,14 +4718,14 @@
       <c r="J88" s="9">
         <v>37.839815666666674</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K88">
         <f t="shared" si="1"/>
         <v>325918116.31856674</v>
       </c>
-      <c r="L88" s="11">
+      <c r="L88">
         <v>8613100</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M88" s="12">
         <v>1.0695046012267288E-3</v>
       </c>
       <c r="N88" s="6">
@@ -4767,14 +4766,14 @@
       <c r="J89" s="9">
         <v>37.644797000000004</v>
       </c>
-      <c r="K89" s="11">
+      <c r="K89">
         <f t="shared" si="1"/>
         <v>330095931.45390004</v>
       </c>
-      <c r="L89" s="11">
+      <c r="L89">
         <v>8768700</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M89" s="12">
         <v>6.5972094493400631E-3</v>
       </c>
       <c r="N89" s="6">
@@ -4815,14 +4814,14 @@
       <c r="J90" s="9">
         <v>36.815596666666664</v>
       </c>
-      <c r="K90" s="11">
+      <c r="K90">
         <f t="shared" si="1"/>
         <v>322471492.76299995</v>
       </c>
-      <c r="L90" s="11">
+      <c r="L90">
         <v>8759100</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M90" s="12">
         <v>6.8696602945432497E-3</v>
       </c>
       <c r="N90" s="6">
@@ -4863,14 +4862,14 @@
       <c r="J91" s="9">
         <v>37.992781666666666</v>
       </c>
-      <c r="K91" s="11">
+      <c r="K91">
         <f t="shared" si="1"/>
         <v>332645799.88249999</v>
       </c>
-      <c r="L91" s="11">
+      <c r="L91">
         <v>8755500</v>
       </c>
-      <c r="M91" s="13">
+      <c r="M91" s="12">
         <v>6.8937131594652423E-3</v>
       </c>
       <c r="N91" s="6">
@@ -4911,14 +4910,14 @@
       <c r="J92" s="9">
         <v>36.832033000000003</v>
       </c>
-      <c r="K92" s="11">
+      <c r="K92">
         <f t="shared" si="1"/>
         <v>320840156.2597</v>
       </c>
-      <c r="L92" s="11">
+      <c r="L92">
         <v>8710900</v>
       </c>
-      <c r="M92" s="13">
+      <c r="M92" s="12">
         <v>7.4610015518473752E-3</v>
       </c>
       <c r="N92" s="6">
@@ -4959,14 +4958,14 @@
       <c r="J93" s="9">
         <v>37.324316000000003</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K93">
         <f t="shared" si="1"/>
         <v>332716417.68720001</v>
       </c>
-      <c r="L93" s="11">
+      <c r="L93">
         <v>8914200</v>
       </c>
-      <c r="M93" s="13">
+      <c r="M93" s="12">
         <v>6.1370929645574706E-3</v>
       </c>
       <c r="N93" s="6">
@@ -5005,16 +5004,16 @@
         <v>129.94174979755198</v>
       </c>
       <c r="J94" s="9">
-        <v>37.118829000000005</v>
-      </c>
-      <c r="K94" s="11">
+        <v>36.91255266666667</v>
+      </c>
+      <c r="K94">
         <f t="shared" si="1"/>
-        <v>329581794.57390004</v>
-      </c>
-      <c r="L94" s="11">
+        <v>327750246.38260001</v>
+      </c>
+      <c r="L94">
         <v>8879100</v>
       </c>
-      <c r="M94" s="13">
+      <c r="M94" s="12">
         <v>-6.349913016268047E-4</v>
       </c>
       <c r="N94" s="6">
@@ -5053,16 +5052,16 @@
         <v>131.25481285276797</v>
       </c>
       <c r="J95" s="9">
-        <v>44.8</v>
-      </c>
-      <c r="K95" s="11">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="K95">
         <f t="shared" si="1"/>
-        <v>399732480</v>
-      </c>
-      <c r="L95" s="11">
+        <v>336382020</v>
+      </c>
+      <c r="L95">
         <v>8922600</v>
       </c>
-      <c r="M95" s="13">
+      <c r="M95" s="12">
         <v>1.0105012878937919E-2</v>
       </c>
       <c r="N95" s="6">
@@ -5101,16 +5100,16 @@
         <v>132.02720288524799</v>
       </c>
       <c r="J96" s="9">
-        <v>44.8</v>
-      </c>
-      <c r="K96" s="11">
+        <v>37.133333333333333</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="1"/>
-        <v>403204480</v>
-      </c>
-      <c r="L96" s="11">
+        <v>334203713.33333331</v>
+      </c>
+      <c r="L96">
         <v>9000100</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M96" s="12">
         <v>5.8846606512359201E-3</v>
       </c>
       <c r="N96" s="6">
@@ -5149,16 +5148,16 @@
         <v>133.31451960604798</v>
       </c>
       <c r="J97" s="10">
-        <v>44.8</v>
-      </c>
-      <c r="K97" s="11">
+        <v>36.1</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="1"/>
-        <v>407102080</v>
-      </c>
-      <c r="L97" s="11">
+        <v>328044310</v>
+      </c>
+      <c r="L97">
         <v>9087100</v>
       </c>
-      <c r="M97" s="13">
+      <c r="M97" s="12">
         <v>9.7503900156005689E-3</v>
       </c>
       <c r="N97" s="6">
@@ -5170,13 +5169,6 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H98" s="6"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
